--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_running.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_running.xlsx
@@ -997,130 +997,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.11764705882353</v>
+        <v>37.58372704589014</v>
       </c>
       <c r="C2" t="n">
-        <v>18.35294117647059</v>
+        <v>17.15180575447769</v>
       </c>
       <c r="D2" t="n">
-        <v>1.092941176470588</v>
+        <v>1.021272074993911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.137553342336848</v>
       </c>
       <c r="F2" t="n">
-        <v>15.88235294117647</v>
+        <v>14.86424441958515</v>
       </c>
       <c r="G2" t="n">
-        <v>8.352941176470589</v>
+        <v>7.829576837978302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8524547620550883</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3426470588235294</v>
+        <v>0.3197846088732369</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1638235294117647</v>
+        <v>0.1532025588143514</v>
       </c>
       <c r="K2" t="n">
-        <v>5.676470588235294</v>
+        <v>5.299287787752105</v>
       </c>
       <c r="L2" t="n">
-        <v>2.676470588235294</v>
+        <v>2.506456989035308</v>
       </c>
       <c r="M2" t="n">
-        <v>59.35294117647059</v>
+        <v>55.5022028390737</v>
       </c>
       <c r="N2" t="n">
-        <v>10.47058823529412</v>
+        <v>9.75612066379167</v>
       </c>
       <c r="O2" t="n">
-        <v>0.76</v>
+        <v>0.7094811017615879</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05509967299579636</v>
       </c>
       <c r="Q2" t="n">
-        <v>19.64705882352941</v>
+        <v>18.3779359798941</v>
       </c>
       <c r="R2" t="n">
-        <v>15.11764705882353</v>
+        <v>14.13613383822383</v>
       </c>
       <c r="S2" t="n">
-        <v>1.235294117647059</v>
+        <v>1.152462876033001</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2197058823529412</v>
+        <v>0.2052018952841223</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1614705882352941</v>
+        <v>0.1506663086445792</v>
       </c>
       <c r="V2" t="n">
-        <v>2.764705882352941</v>
+        <v>2.580364470082813</v>
       </c>
       <c r="W2" t="n">
-        <v>1.852941176470588</v>
+        <v>1.727442153929444</v>
       </c>
       <c r="X2" t="n">
-        <v>39.3235294117647</v>
+        <v>36.80306728843276</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.411764705882353</v>
+        <v>6.014715407801403</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4538235294117647</v>
+        <v>0.4247224454878227</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05416129784425006</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.29411764705882</v>
+        <v>11.50982490637701</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.85294117647059</v>
+        <v>10.15957209109135</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7673628051079973</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1217647058823529</v>
+        <v>0.1137297737457887</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.09911764705882353</v>
+        <v>0.09242044123959359</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.588235294117647</v>
+        <v>1.486169289875895</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.264705882352941</v>
+        <v>1.181100165952684</v>
       </c>
       <c r="AI2" t="n">
-        <v>21.11764705882353</v>
+        <v>19.798156669993</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02759710193633533</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.06823529411764706</v>
+        <v>0.06389275295372976</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05528975905399131</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.588235294117647</v>
+        <v>8.047859963824591</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.529411764705882</v>
+        <v>7.053799525897585</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.3595986153546988</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02294117647058824</v>
+        <v>0.02148044202087399</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01735294117647059</v>
+        <v>0.016254584006342</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.26470588235294</v>
+        <v>25.54304227185718</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08330917932193788</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.07941176470588236</v>
+        <v>0.07441422022124246</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02721071981424149</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.558823529411764</v>
+        <v>8.018227469670512</v>
       </c>
       <c r="AY2" t="n">
-        <v>7.823529411764706</v>
+        <v>7.325667944681957</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2760685381236743</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.02235294117647059</v>
+        <v>0.0209265857683759</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.02029411764705882</v>
+        <v>0.01898782397082181</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
@@ -1162,169 +1162,169 @@
         <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.470588235294118</v>
+        <v>6.082721889134036</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.823529411764706</v>
+        <v>1.717325141771579</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1194117647058824</v>
+        <v>0.1123285040916038</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02722807323262577</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.529411764705882</v>
+        <v>2.374844954089112</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.764705882352941</v>
+        <v>1.661043214719462</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3332035613835733</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.05205882352941177</v>
+        <v>0.04893387992852501</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03029411764705883</v>
+        <v>0.02850833885326284</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.6925794539057475</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.3607717829155187</v>
       </c>
       <c r="BP2" t="n">
-        <v>9.029411764705882</v>
+        <v>8.447832225452448</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.558823529411765</v>
+        <v>1.457953630329403</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.1267647058823529</v>
+        <v>0.1185796114499436</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05575177328122095</v>
       </c>
       <c r="BT2" t="n">
-        <v>4.5</v>
+        <v>4.199350522263058</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.411764705882353</v>
+        <v>3.178617717153742</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.5</v>
+        <v>0.468877691469654</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.06588235294117648</v>
+        <v>0.06134478761682093</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.05</v>
+        <v>0.04650765681878437</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7093650036404812</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5458122743667208</v>
       </c>
       <c r="CA2" t="n">
-        <v>17.91176470588235</v>
+        <v>16.82639813399743</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05452814833363687</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01647058823529412</v>
+        <v>0.01550589561244296</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>7.852941176470588</v>
+        <v>7.394864735713973</v>
       </c>
       <c r="CF2" t="n">
-        <v>7.676470588235294</v>
+        <v>7.227852654218057</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2480205364776384</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.005539396275385014</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.005539396275385014</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02731742851939537</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02731742851939537</v>
       </c>
       <c r="CL2" t="n">
-        <v>11.5</v>
+        <v>10.77410587444751</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5214662760933093</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.09529411764705883</v>
+        <v>0.08899104852106622</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02763599828288331</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.558823529411764</v>
+        <v>2.398791555275776</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.117647058823529</v>
+        <v>1.986267434079944</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1392454097040787</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.01823529411764706</v>
+        <v>0.01710615669997956</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01323529411764706</v>
+        <v>0.01242437453502286</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1114674216412316</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05603607541430022</v>
       </c>
       <c r="CW2" t="n">
-        <v>23.94117647058824</v>
+        <v>22.42463908544351</v>
       </c>
       <c r="CX2" t="n">
-        <v>23.38235294117647</v>
+        <v>21.89833717299999</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.845294117647059</v>
+        <v>1.7293109219724</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1380315816608677</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.117647058823529</v>
+        <v>5.730177477347983</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.235294117647059</v>
+        <v>2.094757492865453</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.088235294117647</v>
+        <v>1.020478443146329</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.4811764705882353</v>
+        <v>0.4517026614521431</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.1605882352941176</v>
+        <v>0.1508642279593947</v>
       </c>
       <c r="DF2" t="n">
-        <v>6.088235294117647</v>
+        <v>5.701402596667822</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.205882352941177</v>
+        <v>2.065982612185291</v>
       </c>
     </row>
     <row r="3">
@@ -1334,130 +1334,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.91176470588235</v>
+        <v>29.43603770129181</v>
       </c>
       <c r="C3" t="n">
-        <v>16.61764705882353</v>
+        <v>15.85605270509182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9723529411764706</v>
+        <v>0.9277565596847454</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2557918509051584</v>
       </c>
       <c r="F3" t="n">
-        <v>14.02941176470588</v>
+        <v>13.38701961781616</v>
       </c>
       <c r="G3" t="n">
-        <v>6.470588235294118</v>
+        <v>6.177971499113819</v>
       </c>
       <c r="H3" t="n">
-        <v>1.529411764705882</v>
+        <v>1.465657922989342</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3697058823529412</v>
+        <v>0.3534760973196349</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1991176470588235</v>
+        <v>0.1904855807830041</v>
       </c>
       <c r="K3" t="n">
-        <v>6.147058823529412</v>
+        <v>5.90548657020407</v>
       </c>
       <c r="L3" t="n">
-        <v>3.205882352941177</v>
+        <v>3.084452397888688</v>
       </c>
       <c r="M3" t="n">
-        <v>54.14705882352941</v>
+        <v>51.46265304723408</v>
       </c>
       <c r="N3" t="n">
-        <v>13.14705882352941</v>
+        <v>12.53264935547111</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8476470588235294</v>
+        <v>0.8083929413512301</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1479505292559342</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.08823529411765</v>
+        <v>17.22023879064145</v>
       </c>
       <c r="R3" t="n">
-        <v>13.88235294117647</v>
+        <v>13.20825422257624</v>
       </c>
       <c r="S3" t="n">
-        <v>1.558823529411765</v>
+        <v>1.480044198151491</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2429411764705882</v>
+        <v>0.23155213355474</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1776470588235294</v>
+        <v>0.1693111925232392</v>
       </c>
       <c r="V3" t="n">
-        <v>3.382352941176471</v>
+        <v>3.215466167919729</v>
       </c>
       <c r="W3" t="n">
-        <v>2.558823529411764</v>
+        <v>2.428881685533696</v>
       </c>
       <c r="X3" t="n">
-        <v>40.73529411764706</v>
+        <v>38.72196471850779</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.558823529411764</v>
+        <v>8.130264756760454</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5561764705882353</v>
+        <v>0.5286026110757077</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.113323708422624</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>10.93185731697243</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.882352941176471</v>
+        <v>9.403794491166279</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7777691564975355</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1191176470588235</v>
+        <v>0.1131322511446626</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09382352941176471</v>
+        <v>0.08928409036606492</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.764705882352941</v>
+        <v>1.677779752514053</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.323529411764706</v>
+        <v>1.260356609502151</v>
       </c>
       <c r="AI3" t="n">
-        <v>13.61764705882353</v>
+        <v>12.97336581162533</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.04029411764705883</v>
+        <v>0.03848084726600516</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02838668979656206</v>
       </c>
       <c r="AM3" t="n">
-        <v>7.029411764705882</v>
+        <v>6.690290020898872</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.205882352941177</v>
+        <v>5.89749688422584</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1692649476581544</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.01735294117647059</v>
+        <v>0.01655625635317968</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01382352941176471</v>
+        <v>0.0131626086112283</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1466,130 +1466,130 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>21.14705882352941</v>
+        <v>20.10652003143518</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08345926985676501</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.05911764705882354</v>
+        <v>0.05639425524320249</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.117647058823529</v>
+        <v>7.736315064729702</v>
       </c>
       <c r="AY3" t="n">
-        <v>7.705882352941177</v>
+        <v>7.347533191540693</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1109901675266374</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01970588235294118</v>
+        <v>0.01888906673060683</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01794117647058823</v>
+        <v>0.01721818545353877</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02832230022393499</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02832230022393499</v>
       </c>
       <c r="BE3" t="n">
-        <v>4.735294117647059</v>
+        <v>4.494235064364933</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.882352941176471</v>
+        <v>1.799412897324985</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1026470588235294</v>
+        <v>0.09775121655764232</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.735294117647059</v>
+        <v>1.640612813429184</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.176470588235294</v>
+        <v>1.110943346341058</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3058773550584188</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.03323529411764706</v>
+        <v>0.03156426947524395</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.02235294117647059</v>
+        <v>0.02122467653545155</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.561545650516216</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3372441855115088</v>
       </c>
       <c r="BP3" t="n">
-        <v>10.94117647058824</v>
+        <v>10.34055584550852</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.441176470588236</v>
+        <v>2.293673544376841</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1788235294117647</v>
+        <v>0.1686193658816769</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05552738171533057</v>
       </c>
       <c r="BT3" t="n">
-        <v>4.705882352941177</v>
+        <v>4.436641337608591</v>
       </c>
       <c r="BU3" t="n">
-        <v>3.911764705882353</v>
+        <v>3.689615214203276</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5518591298621296</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.06382352941176471</v>
+        <v>0.0600437721253031</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.05147058823529412</v>
+        <v>0.04851920363873222</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7435985382512379</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5771322359110772</v>
       </c>
       <c r="CA3" t="n">
-        <v>14.20588235294118</v>
+        <v>13.5254943305244</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02749676760220854</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.008529411764705883</v>
+        <v>0.008029319890831613</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>6.058823529411764</v>
+        <v>5.745594357998328</v>
       </c>
       <c r="CF3" t="n">
-        <v>5.882352941176471</v>
+        <v>5.581813757788351</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05465819628053849</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.001764705882352941</v>
+        <v>0.001654091617970902</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001764705882352941</v>
+        <v>0.001654091617970902</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1598,70 +1598,70 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>6.5</v>
+        <v>6.170553284614794</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.3637861949721056</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.05529411764705883</v>
+        <v>0.05234121807107461</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.03080446897545021</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.735294117647059</v>
+        <v>1.635118990511812</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.5</v>
+        <v>1.41793299284072</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1416040911862965</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.01662393623055165</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.015</v>
+        <v>0.01419410112104026</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.0858477078387038</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.0858477078387038</v>
       </c>
       <c r="CW3" t="n">
-        <v>28.79411764705882</v>
+        <v>27.26260019186615</v>
       </c>
       <c r="CX3" t="n">
-        <v>28.08823529411765</v>
+        <v>26.59772167190674</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.25764705882353</v>
+        <v>2.142631750392004</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3168254170333317</v>
       </c>
       <c r="DA3" t="n">
-        <v>7.235294117647059</v>
+        <v>6.851873773539887</v>
       </c>
       <c r="DB3" t="n">
-        <v>2.676470588235294</v>
+        <v>2.536521140398626</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.5</v>
+        <v>1.428065199684525</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.5426470588235294</v>
+        <v>0.5155425179352766</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1888235294117647</v>
+        <v>0.1791758691600291</v>
       </c>
       <c r="DF3" t="n">
-        <v>7.058823529411764</v>
+        <v>6.686627059701481</v>
       </c>
       <c r="DG3" t="n">
-        <v>2.588235294117647</v>
+        <v>2.45367515881237</v>
       </c>
     </row>
     <row r="4">
@@ -1671,262 +1671,262 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.88571428571429</v>
+        <v>30.27016664944709</v>
       </c>
       <c r="C4" t="n">
-        <v>19.65714285714286</v>
+        <v>18.6575090726791</v>
       </c>
       <c r="D4" t="n">
-        <v>1.213714285714286</v>
+        <v>1.151938279246457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2668825495350537</v>
       </c>
       <c r="F4" t="n">
-        <v>12.57142857142857</v>
+        <v>11.91980653818954</v>
       </c>
       <c r="G4" t="n">
-        <v>5.628571428571429</v>
+        <v>5.350279147932795</v>
       </c>
       <c r="H4" t="n">
-        <v>1.314285714285714</v>
+        <v>1.247185779380742</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4014285714285715</v>
+        <v>0.3795710275612836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1805714285714286</v>
+        <v>0.1705375391861565</v>
       </c>
       <c r="K4" t="n">
-        <v>6.628571428571429</v>
+        <v>6.282073512021145</v>
       </c>
       <c r="L4" t="n">
-        <v>3.057142857142857</v>
+        <v>2.899408752735888</v>
       </c>
       <c r="M4" t="n">
-        <v>50.25714285714286</v>
+        <v>47.82667161346983</v>
       </c>
       <c r="N4" t="n">
-        <v>12.57142857142857</v>
+        <v>11.96951350201879</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8028571428571429</v>
+        <v>0.7641518591397354</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.09318171243160089</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.62857142857143</v>
+        <v>16.75205824007836</v>
       </c>
       <c r="R4" t="n">
-        <v>13.22857142857143</v>
+        <v>12.58508185874049</v>
       </c>
       <c r="S4" t="n">
-        <v>1.771428571428571</v>
+        <v>1.685802616284876</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2442857142857143</v>
+        <v>0.2316785107204554</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1797142857142857</v>
+        <v>0.1705822483581542</v>
       </c>
       <c r="V4" t="n">
-        <v>3.657142857142857</v>
+        <v>3.469226884853058</v>
       </c>
       <c r="W4" t="n">
-        <v>2.685714285714285</v>
+        <v>2.547846002774774</v>
       </c>
       <c r="X4" t="n">
-        <v>31.77142857142857</v>
+        <v>30.26430668812324</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.885714285714286</v>
+        <v>7.527220877328895</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.484</v>
+        <v>0.4628013782146925</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02750102746894294</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.428571428571429</v>
+        <v>8.979736848371108</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.885714285714286</v>
+        <v>7.509972760186478</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.8406763934226851</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1148571428571428</v>
+        <v>0.1094468109065608</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.08742857142857142</v>
+        <v>0.08300050960947312</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.628571428571429</v>
+        <v>1.555588312818752</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.171428571428571</v>
+        <v>1.109704201339782</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.54285714285714</v>
+        <v>11.93125545665169</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08046574043609778</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.042</v>
+        <v>0.03989640785984096</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.514285714285714</v>
+        <v>4.283748658814123</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.771428571428571</v>
+        <v>3.570134981767033</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07976360907484689</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.014</v>
+        <v>0.01323453752652344</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01028571428571429</v>
+        <v>0.009745966655146749</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02640070401877383</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02640070401877383</v>
       </c>
       <c r="AT4" t="n">
-        <v>19.91428571428571</v>
+        <v>18.97641165969264</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1066888151058573</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.05800000000000001</v>
+        <v>0.05533988365342796</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.342857142857143</v>
+        <v>7.03261100720112</v>
       </c>
       <c r="AY4" t="n">
-        <v>6.685714285714286</v>
+        <v>6.397163459416861</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1346877666744807</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.01857142857142857</v>
+        <v>0.017755553715716</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.01571428571428572</v>
+        <v>0.01500384603157585</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02679073754900472</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02679073754900472</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.057142857142857</v>
+        <v>3.818571017171076</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.428571428571429</v>
+        <v>1.356108279310423</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.08485714285714287</v>
+        <v>0.08038547079575288</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.6</v>
+        <v>1.504710821273294</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.2</v>
+        <v>1.12808572219864</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08077024042155398</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.02885714285714286</v>
+        <v>0.02714893813035919</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.02057142857142857</v>
+        <v>0.01939264175652015</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3233123151585403</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2435537798022105</v>
       </c>
       <c r="BP4" t="n">
-        <v>8.171428571428571</v>
+        <v>7.740332595338982</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.685714285714286</v>
+        <v>1.59109150929149</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1302857142857143</v>
+        <v>0.1232535605872196</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02652844364990118</v>
       </c>
       <c r="BT4" t="n">
-        <v>3.085714285714286</v>
+        <v>2.908286842629951</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.514285714285714</v>
+        <v>2.369866131787802</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3525002941328</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.04371428571428571</v>
+        <v>0.04098500323398776</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.03228571428571429</v>
+        <v>0.03026715455861723</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5345922321708411</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3470339007614741</v>
       </c>
       <c r="CA4" t="n">
-        <v>11.48571428571429</v>
+        <v>10.87960282546712</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02574466441829931</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.006000000000000001</v>
+        <v>0.005819112639516728</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>4.685714285714286</v>
+        <v>4.435625847479308</v>
       </c>
       <c r="CF4" t="n">
-        <v>4.485714285714286</v>
+        <v>4.249135796280936</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1354076710119462</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.001389337886536505</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.001389337886536505</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -1935,70 +1935,70 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.771428571428571</v>
+        <v>6.453498961279598</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2804678061005465</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.05144954170792503</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02623772839578156</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.171428571428571</v>
+        <v>2.076575632555381</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.857142857142857</v>
+        <v>1.78116368548942</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1091142017901716</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.01971428571428572</v>
+        <v>0.01898747765964778</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.01542857142857143</v>
+        <v>0.0149501038443981</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1461494515647211</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.09137770361278495</v>
       </c>
       <c r="CW4" t="n">
-        <v>22.25714285714286</v>
+        <v>21.27923454305461</v>
       </c>
       <c r="CX4" t="n">
-        <v>21.28571428571428</v>
+        <v>20.33656341524368</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.010285714285714</v>
+        <v>1.923820367751036</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2420019701092348</v>
       </c>
       <c r="DA4" t="n">
-        <v>5.285714285714286</v>
+        <v>5.054932096270882</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.285714285714286</v>
+        <v>2.199327412364676</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.085714285714286</v>
+        <v>1.041212050645687</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.4557142857142857</v>
+        <v>0.4333238199769154</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.1788571428571429</v>
+        <v>0.1708800457271807</v>
       </c>
       <c r="DF4" t="n">
-        <v>4.942857142857143</v>
+        <v>4.709577989735559</v>
       </c>
       <c r="DG4" t="n">
-        <v>2.085714285714286</v>
+        <v>2.000431709422403</v>
       </c>
     </row>
     <row r="5">
@@ -2008,130 +2008,130 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.41176470588235</v>
+        <v>26.05936893634424</v>
       </c>
       <c r="C5" t="n">
-        <v>12.82352941176471</v>
+        <v>12.1962476287664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.7096772957859874</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1927766907532529</v>
       </c>
       <c r="F5" t="n">
-        <v>12.58823529411765</v>
+        <v>11.97768627434366</v>
       </c>
       <c r="G5" t="n">
-        <v>5.911764705882353</v>
+        <v>5.627887199432708</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9474047669982473</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2814705882352941</v>
+        <v>0.2674483062131352</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1220588235294118</v>
+        <v>0.1160884479798959</v>
       </c>
       <c r="K5" t="n">
-        <v>5.147058823529412</v>
+        <v>4.893715507095748</v>
       </c>
       <c r="L5" t="n">
-        <v>2.029411764705882</v>
+        <v>1.933793487706074</v>
       </c>
       <c r="M5" t="n">
-        <v>44.88235294117647</v>
+        <v>42.67643955212576</v>
       </c>
       <c r="N5" t="n">
-        <v>8.882352941176471</v>
+        <v>8.455514036456707</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5935294117647059</v>
+        <v>0.5646340557229731</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2224687000437143</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.02941176470588</v>
+        <v>15.23623212116495</v>
       </c>
       <c r="R5" t="n">
-        <v>11.52941176470588</v>
+        <v>10.95678924835043</v>
       </c>
       <c r="S5" t="n">
-        <v>1.294117647058824</v>
+        <v>1.227682013104305</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1882352941176471</v>
+        <v>0.1790435471956333</v>
       </c>
       <c r="U5" t="n">
-        <v>0.116764705882353</v>
+        <v>0.1109472227925198</v>
       </c>
       <c r="V5" t="n">
-        <v>2.558823529411764</v>
+        <v>2.442342895391677</v>
       </c>
       <c r="W5" t="n">
-        <v>1.441176470588235</v>
+        <v>1.376766254568558</v>
       </c>
       <c r="X5" t="n">
-        <v>32.05882352941177</v>
+        <v>30.55903386574504</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.735294117647059</v>
+        <v>5.487586482286936</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4029411764705882</v>
+        <v>0.384337035555343</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05588345450705458</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.32352941176471</v>
+        <v>9.85384263123437</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.676470588235293</v>
+        <v>8.283142192771868</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8922287474355597</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1147058823529412</v>
+        <v>0.1095581421516681</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.09176470588235294</v>
+        <v>0.08752178499057399</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.558823529411765</v>
+        <v>1.495944959428728</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.176470588235294</v>
+        <v>1.126300303392148</v>
       </c>
       <c r="AI5" t="n">
-        <v>14.91176470588235</v>
+        <v>14.19886146803947</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.04852941176470588</v>
+        <v>0.04601730739247899</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05477364801456933</v>
       </c>
       <c r="AM5" t="n">
-        <v>6.735294117647059</v>
+        <v>6.412465275345511</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.23692071705519</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2516168941252643</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02</v>
+        <v>0.01887630779545438</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.015</v>
+        <v>0.01413112960221596</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2140,31 +2140,31 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>17.08823529411765</v>
+        <v>16.24217081592758</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08450960451290206</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05583289215403281</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.058823529411764</v>
+        <v>5.756637432544481</v>
       </c>
       <c r="AY5" t="n">
-        <v>5.558823529411764</v>
+        <v>5.283874404165428</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1396045325762658</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.01676470588235294</v>
+        <v>0.01589091908780507</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.015</v>
+        <v>0.01421548645414093</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -2173,169 +2173,169 @@
         <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.558823529411764</v>
+        <v>3.379502531058231</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.176470588235294</v>
+        <v>1.113779187854191</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.07411764705882352</v>
+        <v>0.07043871141722924</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.441176470588235</v>
+        <v>1.371514702628258</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1</v>
+        <v>0.9521334841693817</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2507747694015356</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.02735294117647059</v>
+        <v>0.02607404974758256</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01735294117647059</v>
+        <v>0.01653269943775891</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.5</v>
+        <v>0.4744943434543957</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.250153128826581</v>
       </c>
       <c r="BP5" t="n">
-        <v>8.029411764705882</v>
+        <v>7.624595917942829</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.411764705882353</v>
+        <v>1.347651667994059</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.1064705882352941</v>
+        <v>0.1012727565487956</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02779064381658175</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.411764705882353</v>
+        <v>3.232795234655743</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.441176470588236</v>
+        <v>2.316700814952275</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4155126511969544</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.04058823529411765</v>
+        <v>0.03849466879588755</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02705882352941177</v>
+        <v>0.02562363665948502</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4194854590846135</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.250743556734477</v>
       </c>
       <c r="CA5" t="n">
-        <v>9.029411764705882</v>
+        <v>8.566217521240192</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0587525201847014</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01088235294117647</v>
+        <v>0.01030823240528708</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>3.441176470588236</v>
+        <v>3.260436263303359</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.264705882352941</v>
+        <v>3.093833193602439</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1659627913227711</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.00411764705882353</v>
+        <v>0.0038988969411084</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.002941176470588235</v>
+        <v>0.002757862326148651</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02957739813544082</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>9.941176470588236</v>
+        <v>9.473904858411046</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5888280666024369</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.08411764705882352</v>
+        <v>0.08018561306009026</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.852941176470588</v>
+        <v>2.712220763157746</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2.352941176470588</v>
+        <v>2.239058903816407</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1380932788326089</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.02233360650231047</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01852941176470588</v>
+        <v>0.01759904346468094</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1681608137221217</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08377503821491672</v>
       </c>
       <c r="CW5" t="n">
-        <v>22.61764705882353</v>
+        <v>21.46897244606016</v>
       </c>
       <c r="CX5" t="n">
-        <v>21.91176470588235</v>
+        <v>20.79659123064399</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.678235294117647</v>
+        <v>1.593140543380372</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1939881069990747</v>
       </c>
       <c r="DA5" t="n">
-        <v>5.235294117647059</v>
+        <v>4.984585196057901</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.117647058823529</v>
+        <v>2.010445692182469</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8363971012027678</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.3926470588235294</v>
+        <v>0.3724644205625216</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.136764705882353</v>
+        <v>0.1295655025197718</v>
       </c>
       <c r="DF5" t="n">
-        <v>4.970588235294118</v>
+        <v>4.729916698890142</v>
       </c>
       <c r="DG5" t="n">
-        <v>2</v>
+        <v>1.898904080770484</v>
       </c>
     </row>
     <row r="6">
@@ -2345,130 +2345,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.48648648648649</v>
+        <v>29.6372459475987</v>
       </c>
       <c r="C6" t="n">
-        <v>14.59459459459459</v>
+        <v>13.78154924184499</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8608108108108109</v>
+        <v>0.811034650989865</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05101689032581576</v>
       </c>
       <c r="F6" t="n">
-        <v>12.64864864864865</v>
+        <v>11.87095309249914</v>
       </c>
       <c r="G6" t="n">
-        <v>6.594594594594595</v>
+        <v>6.185286893414152</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8894392500132974</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2883783783783784</v>
+        <v>0.270127691797382</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1391891891891892</v>
+        <v>0.1303568737644892</v>
       </c>
       <c r="K6" t="n">
-        <v>4.675675675675675</v>
+        <v>4.377928951059934</v>
       </c>
       <c r="L6" t="n">
-        <v>2.351351351351351</v>
+        <v>2.200887707316801</v>
       </c>
       <c r="M6" t="n">
-        <v>59.72972972972973</v>
+        <v>56.40639586918651</v>
       </c>
       <c r="N6" t="n">
-        <v>11.86486486486486</v>
+        <v>11.16193475593325</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7991891891891892</v>
+        <v>0.7529600137704092</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07531876342501091</v>
       </c>
       <c r="Q6" t="n">
-        <v>18.91891891891892</v>
+        <v>17.84716475959754</v>
       </c>
       <c r="R6" t="n">
-        <v>14.05405405405405</v>
+        <v>13.28318191096152</v>
       </c>
       <c r="S6" t="n">
-        <v>1.486486486486486</v>
+        <v>1.394878178957892</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2121621621621622</v>
+        <v>0.1991131099233067</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1508108108108108</v>
+        <v>0.1416042519884226</v>
       </c>
       <c r="V6" t="n">
-        <v>2.567567567567568</v>
+        <v>2.399054283059796</v>
       </c>
       <c r="W6" t="n">
-        <v>1.621621621621622</v>
+        <v>1.512937917373194</v>
       </c>
       <c r="X6" t="n">
-        <v>43.35135135135135</v>
+        <v>41.07717462922015</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.891891891891892</v>
+        <v>7.445713543206117</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5745945945945946</v>
+        <v>0.544407170248292</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.48648648648649</v>
+        <v>11.85537007570145</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.56756756756757</v>
+        <v>10.00375034712013</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.432432432432432</v>
+        <v>1.400142099838577</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1359459459459459</v>
+        <v>0.1288616063284622</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1054054054054054</v>
+        <v>0.09921955296395972</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.756756756756757</v>
+        <v>1.641012285294518</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.189189189189189</v>
+        <v>1.110756568236982</v>
       </c>
       <c r="AI6" t="n">
-        <v>20.45945945945946</v>
+        <v>19.31182400309129</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.06594594594594594</v>
+        <v>0.06184111397578377</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.72972972972973</v>
+        <v>8.250259044937902</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.513513513513513</v>
+        <v>7.053769084908395</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2790445237258724</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.02305738298992284</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01864864864864865</v>
+        <v>0.01748632089970249</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2477,130 +2477,130 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>26.43243243243243</v>
+        <v>24.71902524119698</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3017955595144256</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.08864864864864866</v>
+        <v>0.08290289183240014</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.0252638883313679</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.648648648648649</v>
+        <v>8.076187677634726</v>
       </c>
       <c r="AY6" t="n">
-        <v>8.054054054054054</v>
+        <v>7.516590848221795</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2768391295277102</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.02756756756756757</v>
+        <v>0.02579028394456848</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.02513513513513514</v>
+        <v>0.02351000702569468</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1262954050558266</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1008574050931357</v>
       </c>
       <c r="BE6" t="n">
-        <v>6.351351351351352</v>
+        <v>5.960844425365099</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.837837837837838</v>
+        <v>1.726219683829222</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.1143243243243243</v>
+        <v>0.107374900890791</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.918918918918919</v>
+        <v>1.801746341881797</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.27027027027027</v>
+        <v>1.190043032066777</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.201516761884911</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.03351351351351351</v>
+        <v>0.0314911179240839</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.02</v>
+        <v>0.01875675734655028</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4836527060909421</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.228598392410755</v>
       </c>
       <c r="BP6" t="n">
-        <v>12.35135135135135</v>
+        <v>11.79113939168924</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3</v>
+        <v>2.861549459546477</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.1832432432432433</v>
+        <v>0.1753476194519207</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07563152691523251</v>
       </c>
       <c r="BT6" t="n">
-        <v>5.72972972972973</v>
+        <v>5.416213216877121</v>
       </c>
       <c r="BU6" t="n">
-        <v>4.567567567567568</v>
+        <v>4.33168597323998</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3792938135400322</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.08162162162162162</v>
+        <v>0.07841485060960739</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0645945945945946</v>
+        <v>0.06251794055164439</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.243243243243243</v>
+        <v>1.215378836531381</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.027027027027027</v>
+        <v>1.013564474884296</v>
       </c>
       <c r="CA6" t="n">
-        <v>13.13513513513514</v>
+        <v>12.38591327959628</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01081081081081081</v>
+        <v>0.0102008623952436</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>5.162162162162162</v>
+        <v>4.884546564988093</v>
       </c>
       <c r="CF6" t="n">
-        <v>5.027027027027027</v>
+        <v>4.758303175404922</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07613872713612184</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.002432432432432432</v>
+        <v>0.002244580652900978</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.002162162162162162</v>
+        <v>0.001992253637088486</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -2609,70 +2609,70 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>14.18918918918919</v>
+        <v>13.25822434237027</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.7321108146223195</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.1148648648648649</v>
+        <v>0.1072520049408139</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.837837837837838</v>
+        <v>2.662232427784537</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.45945945945946</v>
+        <v>2.308801527678555</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2268787908377788</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.02027027027027027</v>
+        <v>0.01893981457838438</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.01648648648648648</v>
+        <v>0.01541198000470205</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1009777457452632</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07596044211024904</v>
       </c>
       <c r="CW6" t="n">
-        <v>24.05405405405405</v>
+        <v>22.69914590817755</v>
       </c>
       <c r="CX6" t="n">
-        <v>23.51351351351351</v>
+        <v>22.18960565774691</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.877027027027027</v>
+        <v>1.769938325227589</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1516515845103492</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.783783783783784</v>
+        <v>6.423339410974846</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.189189189189189</v>
+        <v>2.105602493776348</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.162162162162162</v>
+        <v>1.144309285649702</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.5435135135135135</v>
+        <v>0.511852446803527</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.1548648648648649</v>
+        <v>0.147321097358766</v>
       </c>
       <c r="DF6" t="n">
-        <v>6.675675675675675</v>
+        <v>6.323529388838037</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.135135135135135</v>
+        <v>2.055701587004649</v>
       </c>
     </row>
     <row r="7">
@@ -2682,262 +2682,262 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.48571428571428</v>
+        <v>25.87129185071281</v>
       </c>
       <c r="C7" t="n">
-        <v>13.28571428571429</v>
+        <v>12.50112782379352</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8288571428571428</v>
+        <v>0.7797241985192012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2667530532637579</v>
       </c>
       <c r="F7" t="n">
-        <v>10.4</v>
+        <v>9.774223807173192</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.066836028572372</v>
       </c>
       <c r="H7" t="n">
-        <v>1.085714285714286</v>
+        <v>1.019571608835249</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2554285714285714</v>
+        <v>0.2401912412279119</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1345714285714286</v>
+        <v>0.1264850376216042</v>
       </c>
       <c r="K7" t="n">
-        <v>4.171428571428572</v>
+        <v>3.931266200654686</v>
       </c>
       <c r="L7" t="n">
-        <v>2.285714285714286</v>
+        <v>2.152825333564097</v>
       </c>
       <c r="M7" t="n">
-        <v>55.4</v>
+        <v>52.1906630661971</v>
       </c>
       <c r="N7" t="n">
-        <v>11.77142857142857</v>
+        <v>11.09813105585052</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7406809530336483</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0.1871323730373605</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.05714285714286</v>
+        <v>17.95234481308285</v>
       </c>
       <c r="R7" t="n">
-        <v>14.08571428571429</v>
+        <v>13.26582043965669</v>
       </c>
       <c r="S7" t="n">
-        <v>1.285714285714286</v>
+        <v>1.232105971875642</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2385714285714286</v>
+        <v>0.2246718144519693</v>
       </c>
       <c r="U7" t="n">
-        <v>0.168</v>
+        <v>0.1580135027991494</v>
       </c>
       <c r="V7" t="n">
-        <v>3.2</v>
+        <v>3.019763111034182</v>
       </c>
       <c r="W7" t="n">
-        <v>2.257142857142857</v>
+        <v>2.126386460538573</v>
       </c>
       <c r="X7" t="n">
-        <v>36.11428571428571</v>
+        <v>34.05113371630601</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.942857142857143</v>
+        <v>6.542616675748119</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.4842857142857143</v>
+        <v>0.4560136218114842</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08076269859513745</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.77142857142857</v>
+        <v>11.13427850127337</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.685714285714285</v>
+        <v>9.164489555441365</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.314285714285714</v>
+        <v>1.241271553223517</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.124</v>
+        <v>0.1175054241713268</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.09285714285714286</v>
+        <v>0.08823922508158569</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.657142857142857</v>
+        <v>1.579771800588802</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.114285714285714</v>
+        <v>1.068136700923982</v>
       </c>
       <c r="AI7" t="n">
-        <v>17.82857142857143</v>
+        <v>16.86256221977612</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1331282233772289</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.05685714285714286</v>
+        <v>0.05363806084535348</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.828571428571428</v>
+        <v>6.447983079546993</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.114285714285714</v>
+        <v>5.775658457055936</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.3052712053000255</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02057142857142857</v>
+        <v>0.01936118810555348</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.01615803696322619</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02696831223312608</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02696831223312608</v>
       </c>
       <c r="AT7" t="n">
-        <v>19.54285714285714</v>
+        <v>18.41213618153637</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2385636628051799</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.05971428571428571</v>
+        <v>0.05621526058924333</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03344599679290053</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.714285714285714</v>
+        <v>6.324913498983586</v>
       </c>
       <c r="AY7" t="n">
-        <v>6.114285714285714</v>
+        <v>5.759613007006974</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1460327249019109</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01771428571428571</v>
+        <v>0.01665311458483182</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01542857142857143</v>
+        <v>0.01450627841104369</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07861046467647574</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.0520098463598811</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.628571428571429</v>
+        <v>5.309369015969216</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.057142857142857</v>
+        <v>1.926430561504126</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1182857142857143</v>
+        <v>0.1111505813510792</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.0530414395663656</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.4</v>
+        <v>2.265650324781583</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.628571428571429</v>
+        <v>1.534118292516617</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3558288474362427</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.04828571428571429</v>
+        <v>0.04551239730679504</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.03142857142857143</v>
+        <v>0.02956510230536589</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.8</v>
+        <v>0.7518858092133761</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4302823452661551</v>
       </c>
       <c r="BP7" t="n">
-        <v>9.142857142857142</v>
+        <v>8.60886981019795</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.771428571428571</v>
+        <v>1.67355523228648</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.1362857142857143</v>
+        <v>0.128288734357915</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08689187220686763</v>
       </c>
       <c r="BT7" t="n">
-        <v>4.6</v>
+        <v>4.328980144683437</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.6</v>
+        <v>3.387894497137546</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.6</v>
+        <v>0.5773344355880359</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.05771428571428572</v>
+        <v>0.05432716618593941</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.04428571428571429</v>
+        <v>0.04165734907128268</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6449373891597118</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4561731456774774</v>
       </c>
       <c r="CA7" t="n">
-        <v>14.48571428571429</v>
+        <v>13.66452523763706</v>
       </c>
       <c r="CB7" t="n">
         <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.008571428571428572</v>
+        <v>0.00813072860498102</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02673836509752076</v>
       </c>
       <c r="CE7" t="n">
-        <v>5.714285714285714</v>
+        <v>5.411336898806454</v>
       </c>
       <c r="CF7" t="n">
-        <v>5.342857142857143</v>
+        <v>5.057517180541883</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1619641219732902</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.001714285714285714</v>
+        <v>0.00168725424053468</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0.0005455767927752043</v>
       </c>
       <c r="CJ7" t="n">
         <v>0</v>
@@ -2946,70 +2946,70 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>8.314285714285715</v>
+        <v>7.869129849466413</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.4</v>
+        <v>0.3798867291999106</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.06657142857142857</v>
+        <v>0.06310563863652732</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.028571428571428</v>
+        <v>1.911470091028608</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.742857142857143</v>
+        <v>1.642204958233427</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05494770730373856</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.01771428571428571</v>
+        <v>0.01667125875833651</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.01314285714285714</v>
+        <v>0.01235674604510826</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07971360386480372</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05269428505185247</v>
       </c>
       <c r="CW7" t="n">
-        <v>24.25714285714286</v>
+        <v>22.80723304168422</v>
       </c>
       <c r="CX7" t="n">
-        <v>23.65714285714286</v>
+        <v>22.24660139655348</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.947714285714286</v>
+        <v>1.832662111750502</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3288172706054939</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.228571428571429</v>
+        <v>5.857153404806288</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.428571428571428</v>
+        <v>2.292816464786182</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.285714285714286</v>
+        <v>1.218518565628956</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.5145714285714286</v>
+        <v>0.4838324113058602</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1877142857142857</v>
+        <v>0.1768562093675792</v>
       </c>
       <c r="DF7" t="n">
-        <v>6.114285714285714</v>
+        <v>5.750307872338943</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.4</v>
+        <v>2.265673652881345</v>
       </c>
     </row>
     <row r="8">
@@ -3019,130 +3019,130 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.1578947368421</v>
+        <v>32.47591604127776</v>
       </c>
       <c r="C8" t="n">
-        <v>18.18421052631579</v>
+        <v>17.26975999024776</v>
       </c>
       <c r="D8" t="n">
-        <v>1.003157894736842</v>
+        <v>0.9512867988335918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1959922677949584</v>
       </c>
       <c r="F8" t="n">
-        <v>14.86842105263158</v>
+        <v>14.13953143922335</v>
       </c>
       <c r="G8" t="n">
-        <v>7.789473684210527</v>
+        <v>7.415331008253603</v>
       </c>
       <c r="H8" t="n">
-        <v>1.552631578947368</v>
+        <v>1.476305222451815</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3760526315789474</v>
+        <v>0.3566992168740383</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1957894736842105</v>
+        <v>0.186220281426073</v>
       </c>
       <c r="K8" t="n">
-        <v>6.815789473684211</v>
+        <v>6.476055764084276</v>
       </c>
       <c r="L8" t="n">
-        <v>3.342105263157895</v>
+        <v>3.182605227328978</v>
       </c>
       <c r="M8" t="n">
-        <v>65.73684210526316</v>
+        <v>62.48092476813824</v>
       </c>
       <c r="N8" t="n">
-        <v>13.05263157894737</v>
+        <v>12.39686255932733</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8689473684210527</v>
+        <v>0.8257985222783756</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2777142869561176</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.86842105263158</v>
+        <v>20.85007784552728</v>
       </c>
       <c r="R8" t="n">
-        <v>16.86842105263158</v>
+        <v>16.06432520499358</v>
       </c>
       <c r="S8" t="n">
-        <v>1.631578947368421</v>
+        <v>1.558617486724088</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2539473684210526</v>
+        <v>0.2425348059352125</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1844736842105263</v>
+        <v>0.1756736086864429</v>
       </c>
       <c r="V8" t="n">
-        <v>3.315789473684211</v>
+        <v>3.170516970728792</v>
       </c>
       <c r="W8" t="n">
-        <v>2.236842105263158</v>
+        <v>2.128206387341694</v>
       </c>
       <c r="X8" t="n">
-        <v>39.02631578947368</v>
+        <v>37.06275681673402</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.184210526315789</v>
+        <v>7.765071216291495</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5163157894736843</v>
+        <v>0.4901835858591024</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.100932164345209</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.05263157894737</v>
+        <v>12.36100277625691</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.1578947368421</v>
+        <v>10.56831044948577</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.447368421052632</v>
+        <v>1.372817678558631</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1294736842105263</v>
+        <v>0.1226834370177495</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1023684210526316</v>
+        <v>0.09699711833307921</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.947368421052632</v>
+        <v>1.846168896356524</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.5</v>
+        <v>1.419515237334678</v>
       </c>
       <c r="AI8" t="n">
-        <v>16.34210526315789</v>
+        <v>15.50432008981327</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02489929617989465</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.05105263157894737</v>
+        <v>0.0483783192262297</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02506265664160401</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.605263157894737</v>
+        <v>6.279088043937162</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.552631578947368</v>
+        <v>5.283176838931639</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2533840548164673</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.0200408706084977</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.015</v>
+        <v>0.01428903208488167</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3151,130 +3151,130 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.76315789473684</v>
+        <v>22.51807499685361</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2228598539589743</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.07342105263157894</v>
+        <v>0.06958407625722374</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02591837439955766</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.368421052631579</v>
+        <v>8.878158500393576</v>
       </c>
       <c r="AY8" t="n">
-        <v>8.394736842105264</v>
+        <v>7.962087608745182</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2220462084902916</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.02657894736842105</v>
+        <v>0.0251742860203437</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.02289473684210526</v>
+        <v>0.02168840341408159</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07314511522969881</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07314511522969881</v>
       </c>
       <c r="BE8" t="n">
-        <v>6.210526315789473</v>
+        <v>5.910152025013828</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.447368421052631</v>
+        <v>2.327770567008699</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1286842105263158</v>
+        <v>0.1224789325918473</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05119559895272241</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.394736842105263</v>
+        <v>2.292311416354662</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.5</v>
+        <v>1.429312445355103</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3986099443367876</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.05421052631578947</v>
+        <v>0.05194950397477166</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.03076654465914628</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.052631578947368</v>
+        <v>1.009214951839839</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5822101690306303</v>
       </c>
       <c r="BP8" t="n">
-        <v>9.026315789473685</v>
+        <v>8.57015725789139</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.657894736842105</v>
+        <v>1.581264468084583</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.1310526315789474</v>
+        <v>0.1247703331007752</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05035190580369549</v>
       </c>
       <c r="BT8" t="n">
-        <v>4</v>
+        <v>3.790532548492437</v>
       </c>
       <c r="BU8" t="n">
-        <v>3.131578947368421</v>
+        <v>2.973996700508257</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5273390958208841</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.05842105263157895</v>
+        <v>0.05541693991266313</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.04421052631578947</v>
+        <v>0.04208083438364739</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.696829456886274</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.550722245303057</v>
       </c>
       <c r="CA8" t="n">
-        <v>13.13157894736842</v>
+        <v>12.51566415416526</v>
       </c>
       <c r="CB8" t="n">
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.006842105263157895</v>
+        <v>0.006533825850046228</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>5.657894736842105</v>
+        <v>5.400617544363164</v>
       </c>
       <c r="CF8" t="n">
-        <v>5.473684210526316</v>
+        <v>5.217971350605493</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1588494669938081</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.001842105263157895</v>
+        <v>0.001740724383666574</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.00131578947368421</v>
+        <v>0.001251290180481771</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
@@ -3283,70 +3283,70 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>9.473684210526315</v>
+        <v>9.0235233653303</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3984414301151017</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.07078947368421053</v>
+        <v>0.06721779487790748</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>2.394736842105263</v>
+        <v>2.26907160684193</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.947368421052632</v>
+        <v>1.843720199963007</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1497661273311119</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.01868421052631579</v>
+        <v>0.01761318738556117</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01342105263157895</v>
+        <v>0.01260571960589394</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1260328328342743</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04995127985802333</v>
       </c>
       <c r="CW8" t="n">
-        <v>27.39473684210526</v>
+        <v>26.132589244897</v>
       </c>
       <c r="CX8" t="n">
-        <v>26.23684210526316</v>
+        <v>25.03137843885926</v>
       </c>
       <c r="CY8" t="n">
-        <v>2.207631578947368</v>
+        <v>2.10888047855736</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4356668452929587</v>
       </c>
       <c r="DA8" t="n">
-        <v>6.947368421052632</v>
+        <v>6.629575500944261</v>
       </c>
       <c r="DB8" t="n">
-        <v>2.842105263157895</v>
+        <v>2.741456609481435</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.552631578947368</v>
+        <v>1.496899579568682</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.5989473684210527</v>
+        <v>0.5716660235785657</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.2263157894736842</v>
+        <v>0.2183096604492284</v>
       </c>
       <c r="DF8" t="n">
-        <v>6.710526315789473</v>
+        <v>6.404148397455659</v>
       </c>
       <c r="DG8" t="n">
-        <v>2.684210526315789</v>
+        <v>2.591107631654956</v>
       </c>
     </row>
     <row r="9">
@@ -3356,130 +3356,130 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.52941176470588</v>
+        <v>35.77872133700276</v>
       </c>
       <c r="C9" t="n">
-        <v>21.32352941176471</v>
+        <v>20.29243987678937</v>
       </c>
       <c r="D9" t="n">
-        <v>1.241470588235294</v>
+        <v>1.18087449688156</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3114915383149782</v>
       </c>
       <c r="F9" t="n">
-        <v>15.94117647058824</v>
+        <v>15.24044592171525</v>
       </c>
       <c r="G9" t="n">
-        <v>7.676470588235294</v>
+        <v>7.363543290931635</v>
       </c>
       <c r="H9" t="n">
-        <v>2.058823529411764</v>
+        <v>1.954025350837213</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4570588235294118</v>
+        <v>0.4360492234964251</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2135294117647059</v>
+        <v>0.2042723706922048</v>
       </c>
       <c r="K9" t="n">
-        <v>7.852941176470588</v>
+        <v>7.501054970179717</v>
       </c>
       <c r="L9" t="n">
-        <v>3.794117647058823</v>
+        <v>3.63178481166219</v>
       </c>
       <c r="M9" t="n">
-        <v>59.76470588235294</v>
+        <v>57.08596433356124</v>
       </c>
       <c r="N9" t="n">
-        <v>13.35294117647059</v>
+        <v>12.68912452120863</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8814705882352941</v>
+        <v>0.8401907813760819</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3136699652037573</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.67647058823529</v>
+        <v>18.72065591315176</v>
       </c>
       <c r="R9" t="n">
-        <v>15.35294117647059</v>
+        <v>14.62346224930048</v>
       </c>
       <c r="S9" t="n">
-        <v>1.823529411764706</v>
+        <v>1.722706595359675</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2538235294117647</v>
+        <v>0.2415146629924167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1835294117647059</v>
+        <v>0.1747171584191698</v>
       </c>
       <c r="V9" t="n">
-        <v>3.411764705882353</v>
+        <v>3.235696900923015</v>
       </c>
       <c r="W9" t="n">
-        <v>2.352941176470588</v>
+        <v>2.224655131108416</v>
       </c>
       <c r="X9" t="n">
-        <v>38.14705882352941</v>
+        <v>36.65552996394535</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.911764705882353</v>
+        <v>8.553342974367789</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5485294117647058</v>
+        <v>0.5265164907602411</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1203034502762903</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.14705882352941</v>
+        <v>9.804317454408929</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.294117647058824</v>
+        <v>8.022492563710614</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.205882352941176</v>
+        <v>1.174643065322528</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1205882352941176</v>
+        <v>0.1158598157360629</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.08470588235294117</v>
+        <v>0.08145551689925583</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.794117647058824</v>
+        <v>1.71855306862445</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.176470588235294</v>
+        <v>1.126552030247921</v>
       </c>
       <c r="AI9" t="n">
-        <v>14.67647058823529</v>
+        <v>14.07214087307005</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.04029411764705883</v>
+        <v>0.03894148151707627</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.117647058823529</v>
+        <v>6.800692384174377</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.5</v>
+        <v>6.221913575474072</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05509014773891895</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.01823529411764706</v>
+        <v>0.01733492396250118</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01558823529411765</v>
+        <v>0.01484912778705223</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3488,31 +3488,31 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>19.64705882352941</v>
+        <v>19.17444183770565</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1102480037220425</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.06676470588235295</v>
+        <v>0.06426794104514384</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.352941176470588</v>
+        <v>7.128954604115365</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.617647058823529</v>
+        <v>6.378408132195574</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2204314624462833</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.02088235294117647</v>
+        <v>0.02013781333535714</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01647058823529412</v>
+        <v>0.01570917067298828</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
@@ -3521,97 +3521,97 @@
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.352941176470588</v>
+        <v>5.085529441256992</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.088235294117647</v>
+        <v>1.996022098893464</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.09758571988654405</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.176470588235294</v>
+        <v>2.052534052235801</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.323529411764706</v>
+        <v>1.249141910334842</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.2998402764307451</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.04205882352941176</v>
+        <v>0.03943294296589272</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02529411764705882</v>
+        <v>0.02368435925030292</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.7976737592955185</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.438601178855861</v>
       </c>
       <c r="BP9" t="n">
-        <v>7.735294117647059</v>
+        <v>7.386876050090484</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.205882352941177</v>
+        <v>2.115374133588056</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.1402941176470588</v>
+        <v>0.1332596274190584</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1105202129640321</v>
       </c>
       <c r="BT9" t="n">
-        <v>3.264705882352941</v>
+        <v>3.10986570207844</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.529411764705882</v>
+        <v>2.415321016364731</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5784065092031584</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.05676470588235294</v>
+        <v>0.05430717174563446</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.04147058823529411</v>
+        <v>0.03982798500180672</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8692741207143564</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5889912971136281</v>
       </c>
       <c r="CA9" t="n">
-        <v>11.41176470588235</v>
+        <v>11.18019201574903</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1120634330429209</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.01323529411764706</v>
+        <v>0.01261088439373077</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02925832106651132</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.088235294117647</v>
+        <v>4.017224533431557</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.911764705882353</v>
+        <v>3.843294734243118</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.112196168375608</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.002647058823529412</v>
+        <v>0.002488157947019501</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.002647058823529412</v>
+        <v>0.002488157947019501</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -3620,70 +3620,70 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>10.26470588235294</v>
+        <v>9.883178355620721</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.642525885985719</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.08323529411764706</v>
+        <v>0.0806245804495108</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.294117647058823</v>
+        <v>3.15475021213376</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2.823529411764706</v>
+        <v>2.70699733439706</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1970915987961524</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.02558823529411765</v>
+        <v>0.02488500604178557</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.02117647058823529</v>
+        <v>0.02067169724937537</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2505479552121862</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2505479552121862</v>
       </c>
       <c r="CW9" t="n">
-        <v>24</v>
+        <v>22.83698723071608</v>
       </c>
       <c r="CX9" t="n">
-        <v>22.82352941176471</v>
+        <v>21.72267388528381</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.987058823529412</v>
+        <v>1.896333290110224</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3369249288051475</v>
       </c>
       <c r="DA9" t="n">
-        <v>6.823529411764706</v>
+        <v>6.460215519521668</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.5</v>
+        <v>2.366387026962446</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.205882352941176</v>
+        <v>1.137882729142599</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.5408823529411765</v>
+        <v>0.5119856107313501</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.1888235294117647</v>
+        <v>0.1780592882352507</v>
       </c>
       <c r="DF9" t="n">
-        <v>6.294117647058823</v>
+        <v>5.955649140119995</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.176470588235294</v>
+        <v>2.053529992437532</v>
       </c>
     </row>
     <row r="10">
@@ -3693,130 +3693,130 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>35.36240733141441</v>
       </c>
       <c r="C10" t="n">
-        <v>19.41666666666667</v>
+        <v>18.63202176216571</v>
       </c>
       <c r="D10" t="n">
-        <v>1.132777777777778</v>
+        <v>1.088511039026901</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3977240903544262</v>
       </c>
       <c r="F10" t="n">
-        <v>14.66666666666667</v>
+        <v>14.00188770678003</v>
       </c>
       <c r="G10" t="n">
-        <v>7.333333333333333</v>
+        <v>6.995789086844379</v>
       </c>
       <c r="H10" t="n">
-        <v>1.388888888888889</v>
+        <v>1.308484733486515</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3913888888888889</v>
+        <v>0.3751496722417539</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1891666666666667</v>
+        <v>0.1820656171254997</v>
       </c>
       <c r="K10" t="n">
-        <v>6.527777777777778</v>
+        <v>6.237711226651149</v>
       </c>
       <c r="L10" t="n">
-        <v>3.166666666666667</v>
+        <v>3.030093283051981</v>
       </c>
       <c r="M10" t="n">
-        <v>58.75</v>
+        <v>56.1265940913211</v>
       </c>
       <c r="N10" t="n">
-        <v>12.86111111111111</v>
+        <v>12.31493831402931</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8191666666666667</v>
+        <v>0.7838451184655029</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1043727552185091</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.47222222222222</v>
+        <v>19.60329807880913</v>
       </c>
       <c r="R10" t="n">
-        <v>15.94444444444444</v>
+        <v>15.26649369019134</v>
       </c>
       <c r="S10" t="n">
-        <v>1.638888888888889</v>
+        <v>1.568413282798686</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2430555555555556</v>
+        <v>0.2330041242076633</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1755555555555556</v>
+        <v>0.1682202700648376</v>
       </c>
       <c r="V10" t="n">
-        <v>3.444444444444445</v>
+        <v>3.310977119421743</v>
       </c>
       <c r="W10" t="n">
-        <v>2.277777777777778</v>
+        <v>2.18668698909356</v>
       </c>
       <c r="X10" t="n">
-        <v>40.22222222222222</v>
+        <v>38.29346392566186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.277777777777779</v>
+        <v>7.885520656402682</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5655555555555556</v>
+        <v>0.5397877091365488</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1331381105696079</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.80555555555556</v>
+        <v>11.2513215724924</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.25</v>
+        <v>9.761768229891921</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.166666666666667</v>
+        <v>1.101055537015037</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1219444444444444</v>
+        <v>0.115884960391363</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.09444444444444444</v>
+        <v>0.08986055737995877</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.527777777777778</v>
+        <v>1.456857043926213</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.138888888888889</v>
+        <v>1.089534449360646</v>
       </c>
       <c r="AI10" t="n">
-        <v>15.44444444444444</v>
+        <v>14.75953279084357</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05197429948951632</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.04194444444444444</v>
+        <v>0.04019603355810059</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02528598448451992</v>
       </c>
       <c r="AM10" t="n">
-        <v>7.194444444444445</v>
+        <v>6.886979863878402</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.222222222222222</v>
+        <v>5.968171985816495</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1044279832609149</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01527777777777778</v>
+        <v>0.0146147173029281</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.01064730030797509</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3825,202 +3825,202 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>28.30555555555556</v>
+        <v>27.00489967654079</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1831831275564269</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.07972222222222222</v>
+        <v>0.07622500100487753</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.03363651041386363</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.80555555555556</v>
+        <v>10.35412036249233</v>
       </c>
       <c r="AY10" t="n">
-        <v>10.11111111111111</v>
+        <v>9.70102260507138</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2225693812936097</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.02916666666666667</v>
+        <v>0.02806839985310515</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.02555555555555556</v>
+        <v>0.02469034904686544</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07764533037649329</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05272010604947434</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.416666666666667</v>
+        <v>4.248629023015791</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.305555555555556</v>
+        <v>1.27611640363761</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.08611111111111111</v>
+        <v>0.08308325637514161</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.416666666666667</v>
+        <v>1.393794174011956</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9479375358014429</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2280324543178043</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.02722222222222222</v>
+        <v>0.02705126290562644</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01583333333333333</v>
+        <v>0.01629754716261049</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4264280134959393</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.25</v>
+        <v>0.2678419547435543</v>
       </c>
       <c r="BP10" t="n">
-        <v>14.91666666666667</v>
+        <v>14.23142800943367</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.833333333333333</v>
+        <v>1.764899360563453</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.1816666666666667</v>
+        <v>0.1743589770099868</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05933895831500172</v>
       </c>
       <c r="BT10" t="n">
-        <v>6.5</v>
+        <v>6.19268251689396</v>
       </c>
       <c r="BU10" t="n">
-        <v>5.416666666666667</v>
+        <v>5.149832224177044</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.538315912742857</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.07494892447142643</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.06305555555555556</v>
+        <v>0.06010170518741187</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.75</v>
+        <v>0.723311460094998</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5894036864279746</v>
       </c>
       <c r="CA10" t="n">
-        <v>14</v>
+        <v>13.38811882407433</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05299504029444976</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.005277777777777778</v>
+        <v>0.005026860063357346</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>5.194444444444445</v>
+        <v>4.968196235206225</v>
       </c>
       <c r="CF10" t="n">
-        <v>5.111111111111111</v>
+        <v>4.886938107285534</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.131271287152777</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.00160434797879314</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.00160434797879314</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02651647733901847</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02651647733901847</v>
       </c>
       <c r="CL10" t="n">
-        <v>11.33333333333333</v>
+        <v>10.78904619036669</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7884330432426797</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.1016666666666667</v>
+        <v>0.09698819107700109</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.03363651041386363</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.25</v>
+        <v>2.149643665773485</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.888888888888889</v>
+        <v>1.809473848280832</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1912092254993733</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.02194444444444445</v>
+        <v>0.02095775070410102</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01555555555555556</v>
+        <v>0.01491454590393072</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.262519707251603</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1830478606741504</v>
       </c>
       <c r="CW10" t="n">
-        <v>26.25</v>
+        <v>25.15101670013551</v>
       </c>
       <c r="CX10" t="n">
-        <v>24.97222222222222</v>
+        <v>23.93375189161995</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.901388888888889</v>
+        <v>1.823442338315905</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.336234207210203</v>
       </c>
       <c r="DA10" t="n">
-        <v>7.527777777777778</v>
+        <v>7.220261351089205</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.055555555555555</v>
+        <v>2.954950846517222</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.333333333333333</v>
+        <v>1.287789966046569</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.5758333333333333</v>
+        <v>0.55503510088643</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.2280555555555556</v>
+        <v>0.2218580740211024</v>
       </c>
       <c r="DF10" t="n">
-        <v>7.194444444444445</v>
+        <v>6.901739388121303</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.861111111111111</v>
+        <v>2.764398309110187</v>
       </c>
     </row>
     <row r="11">
@@ -4030,130 +4030,130 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.41176470588236</v>
+        <v>30.70130780583216</v>
       </c>
       <c r="C11" t="n">
-        <v>16.26470588235294</v>
+        <v>15.39277142012246</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9717647058823529</v>
+        <v>0.9190629573423295</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1389643493719947</v>
       </c>
       <c r="F11" t="n">
-        <v>13.14705882352941</v>
+        <v>12.45550910264606</v>
       </c>
       <c r="G11" t="n">
-        <v>6.294117647058823</v>
+        <v>5.954005969115067</v>
       </c>
       <c r="H11" t="n">
-        <v>1.352941176470588</v>
+        <v>1.274482669334015</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3470588235294118</v>
+        <v>0.3280470985067107</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1661764705882353</v>
+        <v>0.1569002596203233</v>
       </c>
       <c r="K11" t="n">
-        <v>5.882352941176471</v>
+        <v>5.562286891271957</v>
       </c>
       <c r="L11" t="n">
-        <v>2.911764705882353</v>
+        <v>2.748573420798745</v>
       </c>
       <c r="M11" t="n">
-        <v>61.64705882352941</v>
+        <v>58.38103120034276</v>
       </c>
       <c r="N11" t="n">
-        <v>11.5</v>
+        <v>10.89608938375342</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7976470588235295</v>
+        <v>0.7557756734638289</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.112644118952468</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.14705882352941</v>
+        <v>19.10800921340494</v>
       </c>
       <c r="R11" t="n">
-        <v>14.47058823529412</v>
+        <v>13.72886026229756</v>
       </c>
       <c r="S11" t="n">
-        <v>1.529411764705882</v>
+        <v>1.45187209652868</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2405882352941176</v>
+        <v>0.2280409918206469</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1555882352941176</v>
+        <v>0.1477488839767777</v>
       </c>
       <c r="V11" t="n">
-        <v>3.294117647058823</v>
+        <v>3.120489685598355</v>
       </c>
       <c r="W11" t="n">
-        <v>2.147058823529412</v>
+        <v>2.038984637739861</v>
       </c>
       <c r="X11" t="n">
-        <v>36.02941176470588</v>
+        <v>34.17328779378508</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.176470588235294</v>
+        <v>5.850406618293622</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4126470588235294</v>
+        <v>0.3913585029513533</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.14705882352941</v>
+        <v>10.56445239068791</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.264705882352942</v>
+        <v>8.787022458215663</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.058823529411765</v>
+        <v>0.9979248759214991</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1147058823529412</v>
+        <v>0.1086305128712316</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.08147058823529411</v>
+        <v>0.07715078389616251</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.588235294117647</v>
+        <v>1.500144127789756</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.058823529411765</v>
+        <v>0.9981630466593668</v>
       </c>
       <c r="AI11" t="n">
-        <v>15.11764705882353</v>
+        <v>14.34001652449713</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03588235294117647</v>
+        <v>0.03411106318067415</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.147058823529412</v>
+        <v>5.827785544797707</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.117647058823529</v>
+        <v>4.851035571690547</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1111555776728056</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01323529411764706</v>
+        <v>0.01251031527181627</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.009705882352941177</v>
+        <v>0.00917072621429745</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4162,202 +4162,202 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>25.38235294117647</v>
+        <v>24.00796972168185</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05496549593345781</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.06088235294117646</v>
+        <v>0.05754957075863307</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.764705882352942</v>
+        <v>8.293402645493979</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.794117647058823</v>
+        <v>7.377095298883603</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1961577050478277</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01529411764705882</v>
+        <v>0.01447919661977593</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01264705882352941</v>
+        <v>0.01199117705420333</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02794614467408585</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.470588235294118</v>
+        <v>3.288367484989139</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.205882352941176</v>
+        <v>1.137767731799613</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.07588235294117647</v>
+        <v>0.0716982869833437</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02792256142963515</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8889902019756332</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6105793400627102</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1376379303189869</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02147058823529412</v>
+        <v>0.02027576283747205</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01441176470588235</v>
+        <v>0.01360438705900316</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2766552111750761</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1938253081456545</v>
       </c>
       <c r="BP11" t="n">
-        <v>9.382352941176471</v>
+        <v>8.874102072782735</v>
       </c>
       <c r="BQ11" t="n">
-        <v>2.058823529411764</v>
+        <v>1.942890511796331</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.1429411764705882</v>
+        <v>0.1351831788201275</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.0277411320847769</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.352941176470588</v>
+        <v>3.178374001201052</v>
       </c>
       <c r="BU11" t="n">
-        <v>2.764705882352941</v>
+        <v>2.616479899676709</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2480868523355559</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.04852941176470588</v>
+        <v>0.04611896737330923</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.03647058823529412</v>
+        <v>0.03453528495730018</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6437293671855621</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.444271612577278</v>
       </c>
       <c r="CA11" t="n">
-        <v>12.79411764705882</v>
+        <v>12.07299672934137</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05589914485245999</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.01111881991032298</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>5.794117647058823</v>
+        <v>5.470721728027629</v>
       </c>
       <c r="CF11" t="n">
-        <v>5.647058823529412</v>
+        <v>5.332341615746699</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2253658432778291</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.003529411764705882</v>
+        <v>0.003347799762015322</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.002941176470588235</v>
+        <v>0.002802228166654863</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05589914485245999</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02862056508443703</v>
       </c>
       <c r="CL11" t="n">
-        <v>9.117647058823529</v>
+        <v>8.665162140499342</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2805796437339387</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.06</v>
+        <v>0.05703892811606098</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>2.911764705882353</v>
+        <v>2.76811822369157</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.382352941176471</v>
+        <v>2.264781824746709</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1115751399711564</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.01911764705882353</v>
+        <v>0.01816142728499911</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.01382352941176471</v>
+        <v>0.01312301353824021</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05453069357444531</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02701935125937197</v>
       </c>
       <c r="CW11" t="n">
-        <v>21.76470588235294</v>
+        <v>20.58636602760258</v>
       </c>
       <c r="CX11" t="n">
-        <v>21.11764705882353</v>
+        <v>19.97047056395592</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.762941176470588</v>
+        <v>1.666839961232435</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1391277939375892</v>
       </c>
       <c r="DA11" t="n">
-        <v>5.441176470588236</v>
+        <v>5.158105461848068</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.558823529411765</v>
+        <v>1.473054614804341</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8878923277196649</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.4747058823529412</v>
+        <v>0.4505197444968615</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.1270588235294118</v>
+        <v>0.1201420873663499</v>
       </c>
       <c r="DF11" t="n">
-        <v>5.235294117647059</v>
+        <v>4.962218355015501</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.5</v>
+        <v>1.41688824821856</v>
       </c>
     </row>
     <row r="12">
@@ -4367,130 +4367,130 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.22222222222222</v>
+        <v>23.47914990511376</v>
       </c>
       <c r="C12" t="n">
-        <v>12.83333333333333</v>
+        <v>12.37817025416341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7209305159721174</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1867987490630915</v>
       </c>
       <c r="F12" t="n">
-        <v>10.58333333333333</v>
+        <v>10.20798513941606</v>
       </c>
       <c r="G12" t="n">
-        <v>4.916666666666667</v>
+        <v>4.695017219322144</v>
       </c>
       <c r="H12" t="n">
-        <v>1.055555555555556</v>
+        <v>1.00682345799986</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2883333333333333</v>
+        <v>0.2768025772005218</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1383333333333333</v>
+        <v>0.1308557526452698</v>
       </c>
       <c r="K12" t="n">
-        <v>4.75</v>
+        <v>4.578569273760309</v>
       </c>
       <c r="L12" t="n">
-        <v>2.194444444444445</v>
+        <v>2.080246282667411</v>
       </c>
       <c r="M12" t="n">
-        <v>53.80555555555556</v>
+        <v>51.64355281074753</v>
       </c>
       <c r="N12" t="n">
-        <v>11.19444444444444</v>
+        <v>10.80304950793919</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.7348722148897687</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1571215925650313</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.61111111111111</v>
+        <v>17.85884220852776</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86111111111111</v>
+        <v>13.31744814194195</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0.9432337412525222</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.2029562469357379</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1463888888888889</v>
+        <v>0.1406792092049024</v>
       </c>
       <c r="V12" t="n">
-        <v>2.833333333333333</v>
+        <v>2.753152309803577</v>
       </c>
       <c r="W12" t="n">
-        <v>1.861111111111111</v>
+        <v>1.810736410538931</v>
       </c>
       <c r="X12" t="n">
-        <v>37.52777777777778</v>
+        <v>36.26572786848213</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.027777777777779</v>
+        <v>7.833387182920418</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.4886111111111111</v>
+        <v>0.4761135072232288</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07790637339012535</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.58333333333333</v>
+        <v>11.18767015670382</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.333333333333334</v>
+        <v>8.977625966400149</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9021267372548901</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1341666666666667</v>
+        <v>0.1297972049351727</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.09</v>
+        <v>0.08661642312433339</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.111111111111111</v>
+        <v>2.060723344079608</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.277777777777778</v>
+        <v>1.227755874178319</v>
       </c>
       <c r="AI12" t="n">
-        <v>13.55555555555556</v>
+        <v>13.190101425106</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0801476034551431</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.04555555555555556</v>
+        <v>0.04371773490705781</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02929115407147041</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.138888888888889</v>
+        <v>4.990424946080766</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.444444444444445</v>
+        <v>4.308050218521296</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.305070653672473</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01555555555555556</v>
+        <v>0.01500555162209357</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01194444444444445</v>
+        <v>0.01152700797583237</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4499,130 +4499,130 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>19.58333333333333</v>
+        <v>19.01032418136759</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1806892327789086</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.05638888888888888</v>
+        <v>0.05500495063506105</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.888888888888889</v>
+        <v>6.631776409066081</v>
       </c>
       <c r="AY12" t="n">
-        <v>6.138888888888889</v>
+        <v>5.91380661949827</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.104527718107875</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.01638888888888889</v>
+        <v>0.01595557835986597</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0125</v>
+        <v>0.01218753963275416</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05149923718820398</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02601971253421593</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.972222222222222</v>
+        <v>3.918565687801565</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.638888888888889</v>
+        <v>1.638223781993255</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.08416666666666667</v>
+        <v>0.08328281378384231</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0291232729899117</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9761735341627511</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6910387423043769</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08107118489682061</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01685535477856203</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.01166666666666667</v>
+        <v>0.01175639715863808</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3199367261890173</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1978354914801654</v>
       </c>
       <c r="BP12" t="n">
-        <v>8.583333333333334</v>
+        <v>8.309342528153017</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.361111111111111</v>
+        <v>1.336291407979175</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.1147222222222222</v>
+        <v>0.1111682010602848</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05215634724435905</v>
       </c>
       <c r="BT12" t="n">
-        <v>3.5</v>
+        <v>3.368437020796355</v>
       </c>
       <c r="BU12" t="n">
-        <v>2.861111111111111</v>
+        <v>2.757439435643477</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5897815155807066</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.04276951171770223</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03722222222222223</v>
+        <v>0.0359637102176547</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4460748725879544</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3431063425828664</v>
       </c>
       <c r="CA12" t="n">
-        <v>10.94444444444444</v>
+        <v>10.67370178829068</v>
       </c>
       <c r="CB12" t="n">
         <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.006710577662153364</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>4.305555555555555</v>
+        <v>4.202808982372598</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.055555555555555</v>
+        <v>3.972757976117184</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1208655325463666</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001555323130731161</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.001300140368837093</v>
       </c>
       <c r="CJ12" t="n">
         <v>0</v>
@@ -4631,70 +4631,70 @@
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>7.222222222222222</v>
+        <v>7.166772046094476</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3100190219558974</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.06055555555555556</v>
+        <v>0.06024315855383084</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.277777777777778</v>
+        <v>2.201887227742383</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.777777777777778</v>
+        <v>1.734253694826831</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02639385973247184</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.01944444444444444</v>
+        <v>0.01865016317482363</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01472222222222222</v>
+        <v>0.01420852744998337</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07974038742137819</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02601971253421593</v>
       </c>
       <c r="CW12" t="n">
-        <v>21.08333333333333</v>
+        <v>20.53906138763119</v>
       </c>
       <c r="CX12" t="n">
-        <v>20.38888888888889</v>
+        <v>19.87216048454595</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.534166666666667</v>
+        <v>1.492565783826126</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1889631012907125</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.972222222222222</v>
+        <v>4.806368028051058</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.138888888888889</v>
+        <v>2.077928075572883</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.138888888888889</v>
+        <v>1.101804666276081</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.3841666666666667</v>
+        <v>0.3697202103303848</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.1366666666666667</v>
+        <v>0.1313649139709463</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.805555555555555</v>
+        <v>4.645908687764561</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.027777777777778</v>
+        <v>1.970660319476562</v>
       </c>
     </row>
     <row r="13">
@@ -4704,262 +4704,262 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.05405405405406</v>
+        <v>34.49482694223127</v>
       </c>
       <c r="C13" t="n">
-        <v>17.7027027027027</v>
+        <v>17.08983239617003</v>
       </c>
       <c r="D13" t="n">
-        <v>1.090810810810811</v>
+        <v>1.051226598815556</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1275299794399256</v>
       </c>
       <c r="F13" t="n">
-        <v>14.64864864864865</v>
+        <v>14.01275081321221</v>
       </c>
       <c r="G13" t="n">
-        <v>7.027027027027027</v>
+        <v>6.768853483286086</v>
       </c>
       <c r="H13" t="n">
-        <v>1.621621621621622</v>
+        <v>1.589836920060971</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3556756756756757</v>
+        <v>0.3452859583920236</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1710810810810811</v>
+        <v>0.1695569755775052</v>
       </c>
       <c r="K13" t="n">
-        <v>5.621621621621622</v>
+        <v>5.447064898259067</v>
       </c>
       <c r="L13" t="n">
-        <v>2.621621621621621</v>
+        <v>2.594308024679866</v>
       </c>
       <c r="M13" t="n">
-        <v>63.51351351351352</v>
+        <v>60.91105031993295</v>
       </c>
       <c r="N13" t="n">
-        <v>11.91891891891892</v>
+        <v>11.66735578647271</v>
       </c>
       <c r="O13" t="n">
-        <v>0.817027027027027</v>
+        <v>0.7923537597922587</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07891830726038329</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.45945945945946</v>
+        <v>18.61935719437103</v>
       </c>
       <c r="R13" t="n">
-        <v>14.18918918918919</v>
+        <v>13.56044466912992</v>
       </c>
       <c r="S13" t="n">
-        <v>1.540540540540541</v>
+        <v>1.512853323807642</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2191891891891892</v>
+        <v>0.2139144515031888</v>
       </c>
       <c r="U13" t="n">
-        <v>0.152972972972973</v>
+        <v>0.1490707765816378</v>
       </c>
       <c r="V13" t="n">
-        <v>2.648648648648649</v>
+        <v>2.609855096253297</v>
       </c>
       <c r="W13" t="n">
-        <v>1.702702702702703</v>
+        <v>1.661518215491175</v>
       </c>
       <c r="X13" t="n">
-        <v>38.35135135135135</v>
+        <v>36.77572532690801</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.189189189189189</v>
+        <v>7.076136226757493</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4762162162162162</v>
+        <v>0.4670254046088976</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05383919546155576</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.81081081081081</v>
+        <v>12.3178769447951</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.94594594594595</v>
+        <v>10.54004863184146</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.189189189189189</v>
+        <v>1.228232111622837</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1410810810810811</v>
+        <v>0.1390826780344993</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1118918918918919</v>
+        <v>0.1111324192930615</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.054054054054054</v>
+        <v>2.057687138856025</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.594594594594595</v>
+        <v>1.616007393750416</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>13.34931931664584</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05095697355752257</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.04486486486486486</v>
+        <v>0.04271861542094217</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.027027027027027</v>
+        <v>5.785405454625268</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.108108108108108</v>
+        <v>4.912739452379919</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1548373413653548</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01540540540540541</v>
+        <v>0.0146576188762733</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01162162162162162</v>
+        <v>0.01105138455952206</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02555881509333227</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>19.51351351351351</v>
+        <v>18.93402332310113</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.2281600452245825</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.07135135135135136</v>
+        <v>0.07126015808814691</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.783783783783784</v>
+        <v>7.613589547495855</v>
       </c>
       <c r="AY13" t="n">
-        <v>7.081081081081081</v>
+        <v>6.943617503467036</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1788128654361222</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.02675675675675676</v>
+        <v>0.02742655157862088</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.02351550098685686</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1291941498364644</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05117538181867921</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.810810810810811</v>
+        <v>4.623789388462288</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.378378378378378</v>
+        <v>1.360988745562205</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.08486486486486487</v>
+        <v>0.08459550270356604</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.540540540540541</v>
+        <v>1.468013028225753</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.054054054054054</v>
+        <v>1.001823179133767</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07771743952848771</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.02837837837837838</v>
+        <v>0.02697445877436815</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01891891891891892</v>
+        <v>0.01795508313421607</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3845685099569152</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.23078669396302</v>
       </c>
       <c r="BP13" t="n">
-        <v>10.64864864864865</v>
+        <v>10.15604358365161</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.459459459459459</v>
+        <v>1.385300330601558</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.1313513513513514</v>
+        <v>0.1252112359107387</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07715503303578627</v>
       </c>
       <c r="BT13" t="n">
-        <v>4.891891891891892</v>
+        <v>4.703000359498667</v>
       </c>
       <c r="BU13" t="n">
-        <v>4.054054054054054</v>
+        <v>3.906934690583167</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.360981967709116</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.05675675675675676</v>
+        <v>0.05454050487574211</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0472972972972973</v>
+        <v>0.04552901231578717</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5619221305808825</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4589267732326281</v>
       </c>
       <c r="CA13" t="n">
-        <v>10.37837837837838</v>
+        <v>10.17317525664491</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.01324324324324324</v>
+        <v>0.01263842588039146</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>3.567567567567568</v>
+        <v>3.497537816312435</v>
       </c>
       <c r="CF13" t="n">
-        <v>3.45945945945946</v>
+        <v>3.39495542609253</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07558875621574572</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.003513513513513514</v>
+        <v>0.003335115620861502</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.003243243243243244</v>
+        <v>0.00308006078832342</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
@@ -4968,70 +4968,70 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>10</v>
+        <v>9.996759468840883</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.8633621089746674</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.08729729729729729</v>
+        <v>0.09133980977359805</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.486486486486486</v>
+        <v>2.468889738951562</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1.918918918918919</v>
+        <v>1.874389165317706</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07684804464979932</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.0235617804271989</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.01621621621621622</v>
+        <v>0.01638671818211488</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.2299756292485845</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07693666394331668</v>
       </c>
       <c r="CW13" t="n">
-        <v>26.83783783783784</v>
+        <v>25.9398308347712</v>
       </c>
       <c r="CX13" t="n">
-        <v>25.78378378378378</v>
+        <v>24.9396244838885</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.10972972972973</v>
+        <v>2.051114851889666</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2816130590087314</v>
       </c>
       <c r="DA13" t="n">
-        <v>6.324324324324325</v>
+        <v>6.205384955953323</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.351351351351351</v>
+        <v>2.327507164629066</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.216216216216216</v>
+        <v>1.247323908680112</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.5497297297297298</v>
+        <v>0.5440751542348908</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.1675675675675676</v>
+        <v>0.1668971054278168</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.135135135135135</v>
+        <v>6.026161375781964</v>
       </c>
       <c r="DG13" t="n">
-        <v>2.216216216216216</v>
+        <v>2.19933700504291</v>
       </c>
     </row>
     <row r="14">
@@ -5041,130 +5041,130 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.94736842105263</v>
+        <v>25.33401999861342</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57894736842105</v>
+        <v>14.65828534984592</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9397368421052632</v>
+        <v>0.8834165880502918</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1704418255002312</v>
       </c>
       <c r="F14" t="n">
-        <v>12.36842105263158</v>
+        <v>11.60295752483279</v>
       </c>
       <c r="G14" t="n">
-        <v>5.921052631578948</v>
+        <v>5.560324759642548</v>
       </c>
       <c r="H14" t="n">
-        <v>1.473684210526316</v>
+        <v>1.371360453486326</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3628947368421053</v>
+        <v>0.3399635818398202</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1618421052631579</v>
+        <v>0.1514842831830015</v>
       </c>
       <c r="K14" t="n">
-        <v>6.289473684210527</v>
+        <v>5.896619744279371</v>
       </c>
       <c r="L14" t="n">
-        <v>2.815789473684211</v>
+        <v>2.639492732382631</v>
       </c>
       <c r="M14" t="n">
-        <v>51.13157894736842</v>
+        <v>48.07174070502002</v>
       </c>
       <c r="N14" t="n">
-        <v>11.10526315789474</v>
+        <v>10.44838214088439</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7357894736842105</v>
+        <v>0.6915709729142704</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1746919757328536</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.36842105263158</v>
+        <v>16.308511285118</v>
       </c>
       <c r="R14" t="n">
-        <v>13.10526315789474</v>
+        <v>12.30609023242864</v>
       </c>
       <c r="S14" t="n">
-        <v>1.684210526315789</v>
+        <v>1.578721016454453</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2218421052631579</v>
+        <v>0.2081060697581629</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1602631578947368</v>
+        <v>0.1503475389304738</v>
       </c>
       <c r="V14" t="n">
-        <v>3.131578947368421</v>
+        <v>2.94100075556186</v>
       </c>
       <c r="W14" t="n">
-        <v>2.236842105263158</v>
+        <v>2.101392738584432</v>
       </c>
       <c r="X14" t="n">
-        <v>32.57894736842105</v>
+        <v>30.68865309489785</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.815789473684211</v>
+        <v>6.39007412706449</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4418421052631579</v>
+        <v>0.4147637218987359</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07302778568110521</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.1578947368421</v>
+        <v>9.585912866122824</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.736842105263158</v>
+        <v>8.248300288670926</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.052631578947368</v>
+        <v>0.9952432221386655</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1005263157894737</v>
+        <v>0.09467199535543876</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.08052631578947368</v>
+        <v>0.07587168570268894</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.368421052631579</v>
+        <v>1.283489113630218</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9123639202014474</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.86842105263158</v>
+        <v>11.18951689432055</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02469240127017712</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.03026467323431391</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02538364559918095</v>
       </c>
       <c r="AM14" t="n">
-        <v>5.473684210526316</v>
+        <v>5.164096709596638</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.763157894736842</v>
+        <v>4.494874224857168</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1717470662644954</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01342105263157895</v>
+        <v>0.01264027554449935</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.01</v>
+        <v>0.009417768614071178</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5173,130 +5173,130 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>13.1578947368421</v>
+        <v>12.40100554590085</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07640957416190987</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.03973684210526316</v>
+        <v>0.03757470466118829</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.526315789473684</v>
+        <v>4.263688322353812</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.131578947368421</v>
+        <v>3.893778937841446</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1471881559622468</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.01078947368421053</v>
+        <v>0.01020948574926055</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.008468220863168431</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05279620374683929</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05279620374683929</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.184210526315789</v>
+        <v>2.058598927930185</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.868421052631579</v>
+        <v>0.8183555213347858</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.04631578947368421</v>
+        <v>0.04354383113253902</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5959172001939947</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3185692517526336</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1222006189136764</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.01342105263157895</v>
+        <v>0.01264066469979645</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.006052631578947369</v>
+        <v>0.00563524775587181</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.271278170557687</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09791868693183485</v>
       </c>
       <c r="BP14" t="n">
-        <v>8.052631578947368</v>
+        <v>7.602735089519967</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.631578947368421</v>
+        <v>1.544790420624027</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.1331578947368421</v>
+        <v>0.1258849368714776</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02438378120920797</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.947368421052631</v>
+        <v>3.71516605716206</v>
       </c>
       <c r="BU14" t="n">
-        <v>3.263157894736842</v>
+        <v>3.073200723988168</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5251798482134752</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.05447368421052631</v>
+        <v>0.0513396984779098</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.045</v>
+        <v>0.04243656586750372</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5718663006904939</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4235953344353945</v>
       </c>
       <c r="CA14" t="n">
-        <v>9.921052631578947</v>
+        <v>9.377785296078018</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04886358537077468</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.01</v>
+        <v>0.009458764975155423</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.552631578947368</v>
+        <v>4.307845560799576</v>
       </c>
       <c r="CF14" t="n">
-        <v>4.447368421052632</v>
+        <v>4.20936365212631</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1257697296278937</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.002894736842105263</v>
+        <v>0.002784697324209346</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.002894736842105263</v>
+        <v>0.002784697324209346</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -5305,70 +5305,70 @@
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>5.868421052631579</v>
+        <v>5.56094043123976</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3259496020440524</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.04763157894736842</v>
+        <v>0.0452364702064231</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.605263157894737</v>
+        <v>1.530296679609827</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.263157894736842</v>
+        <v>1.202796928653448</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.01157894736842105</v>
+        <v>0.01106123639883159</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.007105263157894737</v>
+        <v>0.006766270290390098</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04994908053586136</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02518257365902795</v>
       </c>
       <c r="CW14" t="n">
-        <v>17.42105263157895</v>
+        <v>16.40282320358346</v>
       </c>
       <c r="CX14" t="n">
-        <v>16.97368421052632</v>
+        <v>15.97345929937693</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.396842105263158</v>
+        <v>1.312677169631628</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09830243720475809</v>
       </c>
       <c r="DA14" t="n">
-        <v>4.842105263157895</v>
+        <v>4.570000468485139</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.763157894736842</v>
+        <v>1.668549076990387</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7472514998673807</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.4044736842105263</v>
+        <v>0.3811326278458785</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.1107894736842105</v>
+        <v>0.1043150295157413</v>
       </c>
       <c r="DF14" t="n">
-        <v>4.605263157894737</v>
+        <v>4.341623335682852</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.552631578947368</v>
+        <v>1.464431096627221</v>
       </c>
     </row>
     <row r="15">
@@ -5378,130 +5378,130 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.45454545454545</v>
+        <v>25.54331938302737</v>
       </c>
       <c r="C15" t="n">
-        <v>13.48484848484848</v>
+        <v>13.0958278332085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7799999999999999</v>
+        <v>0.7529110497783637</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05795257667644149</v>
       </c>
       <c r="F15" t="n">
-        <v>10.03030303030303</v>
+        <v>9.769973419169727</v>
       </c>
       <c r="G15" t="n">
-        <v>4.757575757575758</v>
+        <v>4.645912874851229</v>
       </c>
       <c r="H15" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6932489547990216</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2581818181818182</v>
+        <v>0.2508896081210283</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1206060606060606</v>
+        <v>0.1172841460401908</v>
       </c>
       <c r="K15" t="n">
-        <v>4.242424242424242</v>
+        <v>4.125268262648928</v>
       </c>
       <c r="L15" t="n">
-        <v>1.878787878787879</v>
+        <v>1.811784858250153</v>
       </c>
       <c r="M15" t="n">
-        <v>44.90909090909091</v>
+        <v>43.56095728612141</v>
       </c>
       <c r="N15" t="n">
-        <v>8.333333333333334</v>
+        <v>8.106401909168245</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5604072738047174</v>
       </c>
       <c r="P15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08581419360373281</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.51515151515152</v>
+        <v>13.08893645390671</v>
       </c>
       <c r="R15" t="n">
-        <v>10.06060606060606</v>
+        <v>9.655340132547424</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9586906648405856</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1427272727272727</v>
+        <v>0.1385352515779048</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1015151515151515</v>
+        <v>0.09855319826920583</v>
       </c>
       <c r="V15" t="n">
-        <v>1.727272727272727</v>
+        <v>1.682636897002249</v>
       </c>
       <c r="W15" t="n">
-        <v>1.212121212121212</v>
+        <v>1.194415229896976</v>
       </c>
       <c r="X15" t="n">
-        <v>31.84848484848485</v>
+        <v>30.64546967047931</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.636363636363637</v>
+        <v>5.42523769334018</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.3933333333333334</v>
+        <v>0.3788484333009835</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1062582190441784</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.878787878787879</v>
+        <v>9.583671547454387</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.121212121212121</v>
+        <v>7.895195296520807</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8609960318177068</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1072727272727273</v>
+        <v>0.1046049415232406</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.08121212121212122</v>
+        <v>0.07961454507234472</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.424242424242424</v>
+        <v>1.39362089012609</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0.9966257751719761</v>
       </c>
       <c r="AI15" t="n">
-        <v>12.27272727272727</v>
+        <v>11.85028246620196</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02889366169374645</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.04212121212121212</v>
+        <v>0.04045911702366831</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05712411528047374</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.696969696969697</v>
+        <v>5.552139367628868</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.424242424242424</v>
+        <v>4.304372453376156</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1743777219791886</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.01757575757575757</v>
+        <v>0.01712829060370499</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.01090909090909091</v>
+        <v>0.01069602430109277</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5510,130 +5510,130 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>19.42424242424243</v>
+        <v>18.63673786079056</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1171717852893738</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.05363636363636363</v>
+        <v>0.05156567956740934</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05708114140624975</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.757575757575758</v>
+        <v>6.431237544953345</v>
       </c>
       <c r="AY15" t="n">
-        <v>6.242424242424242</v>
+        <v>5.925274031941547</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1769763115117143</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.01484848484848485</v>
+        <v>0.01408768626540427</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.01151515151515151</v>
+        <v>0.01085752948997096</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05611266777774607</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0278103003790544</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.696969696969697</v>
+        <v>4.600814881114162</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.242424242424242</v>
+        <v>1.211553779661373</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.07636363636363637</v>
+        <v>0.07482779137859745</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>1.393939393939394</v>
+        <v>1.408641443291192</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7544641142342746</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.0872978767471139</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.02363636363636364</v>
+        <v>0.02379063906017125</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01151515151515151</v>
+        <v>0.01192963207465577</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3952808170955924</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1917919324990602</v>
       </c>
       <c r="BP15" t="n">
-        <v>8.303030303030303</v>
+        <v>7.924447425712913</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9111970926963665</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.1033333333333333</v>
+        <v>0.09804991535047004</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05631231653262405</v>
       </c>
       <c r="BT15" t="n">
-        <v>3.787878787878788</v>
+        <v>3.609297881504501</v>
       </c>
       <c r="BU15" t="n">
-        <v>3.242424242424242</v>
+        <v>3.095344007680328</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.4799466254740419</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.04484848484848485</v>
+        <v>0.04257352916078366</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.03818181818181818</v>
+        <v>0.03627467627558882</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.303030303030303</v>
+        <v>0.2853259302805511</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2298713942220491</v>
       </c>
       <c r="CA15" t="n">
-        <v>8.757575757575758</v>
+        <v>8.427652436026872</v>
       </c>
       <c r="CB15" t="n">
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.008484848484848486</v>
+        <v>0.008206127728862804</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>3.424242424242424</v>
+        <v>3.336316755183728</v>
       </c>
       <c r="CF15" t="n">
-        <v>3.303030303030303</v>
+        <v>3.22263182218757</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1692615105310289</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.003636363636363637</v>
+        <v>0.003618154525881063</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.002727272727272727</v>
+        <v>0.002776104760643718</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -5642,70 +5642,70 @@
         <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>8.484848484848484</v>
+        <v>8.330385778038922</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3097436795389617</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.06424242424242424</v>
+        <v>0.0635583864305041</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02789164282705973</v>
       </c>
       <c r="CP15" t="n">
-        <v>2.181818181818182</v>
+        <v>2.180322290701551</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1.606060606060606</v>
+        <v>1.616105809681431</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02789164282705973</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.01606060606060606</v>
+        <v>0.01569309831078597</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.01212121212121212</v>
+        <v>0.01199515826517152</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08586159389358111</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08586159389358111</v>
       </c>
       <c r="CW15" t="n">
-        <v>20.57575757575757</v>
+        <v>19.80260474660762</v>
       </c>
       <c r="CX15" t="n">
-        <v>19.45454545454545</v>
+        <v>18.72288151639685</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.335454545454545</v>
+        <v>1.281295101972685</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1403391628685083</v>
       </c>
       <c r="DA15" t="n">
-        <v>5.303030303030303</v>
+        <v>5.195334401451756</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.212121212121212</v>
+        <v>2.144652029664339</v>
       </c>
       <c r="DC15" t="n">
-        <v>1.03030303030303</v>
+        <v>0.9920575740877285</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.3403030303030303</v>
+        <v>0.3310268263173268</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.1481818181818182</v>
+        <v>0.144219564982017</v>
       </c>
       <c r="DF15" t="n">
-        <v>4.939393939393939</v>
+        <v>4.855663389807902</v>
       </c>
       <c r="DG15" t="n">
-        <v>1.909090909090909</v>
+        <v>1.865922661476892</v>
       </c>
     </row>
     <row r="16">
@@ -5715,130 +5715,130 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.90909090909091</v>
+        <v>26.84266923298313</v>
       </c>
       <c r="C16" t="n">
-        <v>14.66666666666667</v>
+        <v>14.13843746040463</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8272727272727273</v>
+        <v>0.7991232299632488</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1138201497907467</v>
       </c>
       <c r="F16" t="n">
-        <v>10.84848484848485</v>
+        <v>10.42501006194831</v>
       </c>
       <c r="G16" t="n">
-        <v>5.272727272727272</v>
+        <v>5.096948710852014</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9466065837437362</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2860606060606061</v>
+        <v>0.2753531747918668</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1263636363636364</v>
+        <v>0.1217305615379457</v>
       </c>
       <c r="K16" t="n">
-        <v>5.454545454545454</v>
+        <v>5.246837993908385</v>
       </c>
       <c r="L16" t="n">
-        <v>2.696969696969697</v>
+        <v>2.603221120207128</v>
       </c>
       <c r="M16" t="n">
-        <v>49.51515151515152</v>
+        <v>47.9606858921907</v>
       </c>
       <c r="N16" t="n">
-        <v>9.909090909090908</v>
+        <v>9.622012663002096</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7009090909090909</v>
+        <v>0.6791092444568301</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05793848564324854</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.57575757575757</v>
+        <v>16.10603542801028</v>
       </c>
       <c r="R16" t="n">
-        <v>12.06060606060606</v>
+        <v>11.76354215666789</v>
       </c>
       <c r="S16" t="n">
-        <v>1.03030303030303</v>
+        <v>1.022105871716033</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2154545454545455</v>
+        <v>0.2097533883877656</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1433333333333333</v>
+        <v>0.1398002656859195</v>
       </c>
       <c r="V16" t="n">
-        <v>2.909090909090909</v>
+        <v>2.84669839457091</v>
       </c>
       <c r="W16" t="n">
-        <v>1.848484848484848</v>
+        <v>1.819222860473267</v>
       </c>
       <c r="X16" t="n">
-        <v>30.03030303030303</v>
+        <v>29.05888963704009</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.727272727272728</v>
+        <v>5.588075387170441</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3803030303030303</v>
+        <v>0.3692173622190201</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1477101486741461</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.848484848484848</v>
+        <v>8.533671877392338</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.090909090909091</v>
+        <v>6.853442159787689</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7530939855612592</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.08030303030303031</v>
+        <v>0.07748433660786538</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.05545454545454546</v>
+        <v>0.05367714549024658</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.090909090909091</v>
+        <v>1.047466315128806</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5539190447581552</v>
       </c>
       <c r="AI16" t="n">
-        <v>10.39393939393939</v>
+        <v>10.03125199111734</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03212121212121212</v>
+        <v>0.03118916663488474</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.606060606060606</v>
+        <v>3.492341827207502</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.181818181818182</v>
+        <v>3.07571589292271</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1855736472888679</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.009393939393939394</v>
+        <v>0.009091856813179346</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.007272727272727273</v>
+        <v>0.007029600512504191</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5847,31 +5847,31 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>15.33333333333333</v>
+        <v>14.87879574304502</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02873293503100284</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.04787878787878788</v>
+        <v>0.04665486377044303</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.121212121212121</v>
+        <v>4.999621892013823</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.636363636363637</v>
+        <v>4.517599944788477</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.06265217103062243</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.01242424242424242</v>
+        <v>0.01234017599173839</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.01060606060606061</v>
+        <v>0.01060085185128355</v>
       </c>
       <c r="BC16" t="n">
         <v>0</v>
@@ -5880,97 +5880,97 @@
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.333333333333333</v>
+        <v>3.196149031247681</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.181818181818182</v>
+        <v>1.12788284730848</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0684848484848485</v>
+        <v>0.06524405425540467</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>1.333333333333333</v>
+        <v>1.278731858780995</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7762438333754357</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1135817954765302</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.02606060606060606</v>
+        <v>0.02488024899510715</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01575757575757576</v>
+        <v>0.01495759662647581</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5189542210116523</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3461082050011794</v>
       </c>
       <c r="BP16" t="n">
-        <v>8.575757575757576</v>
+        <v>8.310549927419824</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.272727272727273</v>
+        <v>1.221224900093831</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.1028931436747961</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>3.333333333333333</v>
+        <v>3.228693890236189</v>
       </c>
       <c r="BU16" t="n">
-        <v>2.666666666666667</v>
+        <v>2.582078181878252</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3521535810509117</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.04121212121212121</v>
+        <v>0.04005008211200299</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03244292824108047</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3786881647777435</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3504409071156749</v>
       </c>
       <c r="CA16" t="n">
-        <v>7.515151515151516</v>
+        <v>7.296130187066609</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05730650797012219</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.006446385614447792</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>2.606060606060606</v>
+        <v>2.539831838601986</v>
       </c>
       <c r="CF16" t="n">
-        <v>2.424242424242424</v>
+        <v>2.346390103173717</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02884934391783707</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.001212121212121212</v>
+        <v>0.001159549852448513</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.0009090909090909091</v>
+        <v>0.0008605067902475566</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
@@ -5979,70 +5979,70 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>8.363636363636363</v>
+        <v>8.03309329209047</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5340661779651094</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0693939393939394</v>
+        <v>0.06661312564464006</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02839873720281905</v>
       </c>
       <c r="CP16" t="n">
-        <v>2.212121212121212</v>
+        <v>2.144387842049516</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1.606060606060606</v>
+        <v>1.5403340258648</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.177993695367593</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.01878787878787879</v>
+        <v>0.01785132751974842</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.01242424242424242</v>
+        <v>0.01172380346293009</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1408966083017161</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08447381898910629</v>
       </c>
       <c r="CW16" t="n">
-        <v>17.96969696969697</v>
+        <v>17.31341854443658</v>
       </c>
       <c r="CX16" t="n">
-        <v>17.27272727272727</v>
+        <v>16.63310710290571</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.267272727272727</v>
+        <v>1.221320062240568</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1830343341355212</v>
       </c>
       <c r="DA16" t="n">
-        <v>4.121212121212121</v>
+        <v>3.981089826515812</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.212121212121212</v>
+        <v>1.171048943343229</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5910882029764566</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.2990909090909091</v>
+        <v>0.2887480400898518</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.09036808634153265</v>
       </c>
       <c r="DF16" t="n">
-        <v>3.96969696969697</v>
+        <v>3.836607867904359</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.121212121212121</v>
+        <v>1.08454054083357</v>
       </c>
     </row>
     <row r="17">
@@ -6052,130 +6052,130 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.25714285714286</v>
+        <v>23.90395018701383</v>
       </c>
       <c r="C17" t="n">
-        <v>12.91428571428571</v>
+        <v>12.20179719455563</v>
       </c>
       <c r="D17" t="n">
-        <v>0.754</v>
+        <v>0.712389599532041</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1055182289532744</v>
       </c>
       <c r="F17" t="n">
-        <v>9.028571428571428</v>
+        <v>8.555769810726055</v>
       </c>
       <c r="G17" t="n">
-        <v>4.542857142857143</v>
+        <v>4.306561760683208</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6765921061543932</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2257142857142857</v>
+        <v>0.2135932783159116</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09971428571428571</v>
+        <v>0.09432047766186823</v>
       </c>
       <c r="K17" t="n">
-        <v>3.542857142857143</v>
+        <v>3.34896341308638</v>
       </c>
       <c r="L17" t="n">
-        <v>1.514285714285714</v>
+        <v>1.430984377973487</v>
       </c>
       <c r="M17" t="n">
-        <v>58.25714285714286</v>
+        <v>55.0416301551459</v>
       </c>
       <c r="N17" t="n">
-        <v>12.08571428571429</v>
+        <v>11.40793495997424</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8028571428571429</v>
+        <v>0.7578297708576939</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1063411452796017</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.6</v>
+        <v>18.51202183571126</v>
       </c>
       <c r="R17" t="n">
-        <v>14.11428571428571</v>
+        <v>13.33627906165239</v>
       </c>
       <c r="S17" t="n">
-        <v>1.371428571428571</v>
+        <v>1.288303470204756</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2108571428571429</v>
+        <v>0.1987774725685835</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1437142857142857</v>
+        <v>0.1356166889842622</v>
       </c>
       <c r="V17" t="n">
-        <v>2.485714285714286</v>
+        <v>2.340093533898428</v>
       </c>
       <c r="W17" t="n">
-        <v>1.542857142857143</v>
+        <v>1.454516607969392</v>
       </c>
       <c r="X17" t="n">
-        <v>35.77142857142857</v>
+        <v>33.78556452454773</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.628571428571429</v>
+        <v>5.311389038184671</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4</v>
+        <v>0.3777946179432919</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1072552684847972</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.51428571428571</v>
+        <v>9.934042805365184</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.885714285714286</v>
+        <v>8.398350528971525</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.085714285714286</v>
+        <v>1.022313345194485</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.09457142857142857</v>
+        <v>0.08925020213562765</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07628571428571429</v>
+        <v>0.07206625892625247</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.142857142857143</v>
+        <v>1.077417616353101</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.8361866332706083</v>
       </c>
       <c r="AI17" t="n">
-        <v>13.68571428571429</v>
+        <v>12.93946236703905</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.04600000000000001</v>
+        <v>0.04349705707093109</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>6.028571428571428</v>
+        <v>5.695240254852043</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.828571428571428</v>
+        <v>4.558797677757847</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07989994600604859</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.01771428571428571</v>
+        <v>0.01674262743395588</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01085714285714286</v>
+        <v>0.01026130377456895</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6184,130 +6184,130 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>17.94832452442857</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1346863969528651</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.05088286418414577</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02648227159040753</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.142857142857143</v>
+        <v>5.800320842958202</v>
       </c>
       <c r="AY17" t="n">
-        <v>5.371428571428571</v>
+        <v>5.071704447741311</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1336952445303487</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.01075049354909832</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.01028571428571429</v>
+        <v>0.00967500084016723</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05384119539418485</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05384119539418485</v>
       </c>
       <c r="BE17" t="n">
-        <v>4.742857142857143</v>
+        <v>4.483326306886632</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.742857142857143</v>
+        <v>1.645766980403678</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.09857142857142857</v>
+        <v>0.09315677722553359</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02600844118407763</v>
       </c>
       <c r="BI17" t="n">
-        <v>1.342857142857143</v>
+        <v>1.272201173372129</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.7306119924190693</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1362854162904309</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.02457142857142857</v>
+        <v>0.02329024256882389</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.01371428571428571</v>
+        <v>0.01296564391189386</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4317739718886095</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.2</v>
+        <v>0.1874636978763002</v>
       </c>
       <c r="BP17" t="n">
-        <v>10.82857142857143</v>
+        <v>10.24164840211676</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.314285714285714</v>
+        <v>1.245468757812553</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.1268571428571429</v>
+        <v>0.1198657817831632</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05359137560365223</v>
       </c>
       <c r="BT17" t="n">
-        <v>4.914285714285715</v>
+        <v>4.644390039444755</v>
       </c>
       <c r="BU17" t="n">
-        <v>3.857142857142857</v>
+        <v>3.639612367348941</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.4278313689761356</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.05828571428571429</v>
+        <v>0.05499126597605376</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.04085714285714286</v>
+        <v>0.038567531668916</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5390677461958926</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3248550165596139</v>
       </c>
       <c r="CA17" t="n">
-        <v>10.2</v>
+        <v>9.668533117062481</v>
       </c>
       <c r="CB17" t="n">
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.007142857142857143</v>
+        <v>0.006740329751023614</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02648227159040753</v>
       </c>
       <c r="CE17" t="n">
-        <v>3.885714285714286</v>
+        <v>3.683490950343318</v>
       </c>
       <c r="CF17" t="n">
-        <v>3.657142857142857</v>
+        <v>3.466137097765019</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05340286928749996</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.002285714285714286</v>
+        <v>0.002163227087063456</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.001714285714285714</v>
+        <v>0.001630829196542209</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -6316,70 +6316,70 @@
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>9.285714285714286</v>
+        <v>8.753708025594442</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.6</v>
+        <v>0.5656693729806327</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.08142857142857143</v>
+        <v>0.0767814446909942</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>2.314285714285715</v>
+        <v>2.181092595198447</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1.628571428571429</v>
+        <v>1.535121812841451</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08145388082658178</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.02</v>
+        <v>0.01883788495665114</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.01257142857142857</v>
+        <v>0.01183529973669802</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1601245325199269</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1068708209321168</v>
       </c>
       <c r="CW17" t="n">
-        <v>19.68571428571429</v>
+        <v>18.55805252088672</v>
       </c>
       <c r="CX17" t="n">
-        <v>19.11428571428571</v>
+        <v>18.01999495260332</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.384857142857143</v>
+        <v>1.305993359504988</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2417897941709933</v>
       </c>
       <c r="DA17" t="n">
-        <v>5.314285714285714</v>
+        <v>5.011465213745704</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.885714285714286</v>
+        <v>1.772839604104632</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.834535480242821</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.3688571428571429</v>
+        <v>0.3477101726532225</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.1117142857142857</v>
+        <v>0.1048746193800276</v>
       </c>
       <c r="DF17" t="n">
-        <v>5.085714285714285</v>
+        <v>4.796870929045387</v>
       </c>
       <c r="DG17" t="n">
-        <v>1.8</v>
+        <v>1.691926335894051</v>
       </c>
     </row>
     <row r="18">
@@ -6389,130 +6389,130 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.85294117647059</v>
+        <v>22.29655344474543</v>
       </c>
       <c r="C18" t="n">
-        <v>13.38235294117647</v>
+        <v>12.92178621233196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7520588235294118</v>
+        <v>0.7279258418775397</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08290899441766306</v>
       </c>
       <c r="F18" t="n">
-        <v>9.558823529411764</v>
+        <v>9.331750537039294</v>
       </c>
       <c r="G18" t="n">
-        <v>3.676470588235294</v>
+        <v>3.588636915353773</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5813193946183559</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2773529411764706</v>
+        <v>0.2694550059656735</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1041176470588235</v>
+        <v>0.1018841349890971</v>
       </c>
       <c r="K18" t="n">
-        <v>5.029411764705882</v>
+        <v>4.850949144694772</v>
       </c>
       <c r="L18" t="n">
-        <v>1.970588235294118</v>
+        <v>1.900679956413506</v>
       </c>
       <c r="M18" t="n">
-        <v>49.20588235294117</v>
+        <v>47.92035826339548</v>
       </c>
       <c r="N18" t="n">
-        <v>8.794117647058824</v>
+        <v>8.522303281640296</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6544117647058824</v>
+        <v>0.6338094222566323</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08305444061430579</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.32352941176471</v>
+        <v>17.7900377826451</v>
       </c>
       <c r="R18" t="n">
-        <v>12.47058823529412</v>
+        <v>12.15628876757573</v>
       </c>
       <c r="S18" t="n">
-        <v>1.029411764705882</v>
+        <v>0.9898001953899962</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.2055082152703034</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1326470588235294</v>
+        <v>0.1292179068394808</v>
       </c>
       <c r="V18" t="n">
-        <v>2.529411764705882</v>
+        <v>2.452009141994299</v>
       </c>
       <c r="W18" t="n">
-        <v>1.382352941176471</v>
+        <v>1.341313582320553</v>
       </c>
       <c r="X18" t="n">
-        <v>29.38235294117647</v>
+        <v>28.67891535213989</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.411764705882353</v>
+        <v>4.358262169942124</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3326470588235294</v>
+        <v>0.3263614988359756</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05485109147577472</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.058823529411764</v>
+        <v>8.876630147680457</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.411764705882353</v>
+        <v>7.258036933709857</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5927562581965465</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.08588235294117647</v>
+        <v>0.08408493919650671</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.06088235294117646</v>
+        <v>0.0590811162240647</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.147058823529412</v>
+        <v>1.14133690797543</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5951951376198955</v>
       </c>
       <c r="AI18" t="n">
-        <v>13.70588235294118</v>
+        <v>13.52799296172884</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.04117647058823529</v>
+        <v>0.03964528278601161</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.676470588235294</v>
+        <v>6.655055808862437</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.441176470588236</v>
+        <v>5.423786263366567</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.027805239742956</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.02</v>
+        <v>0.01912980961658941</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.01558823529411765</v>
+        <v>0.01491122854783543</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6521,130 +6521,130 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>21.61764705882353</v>
+        <v>21.23571667430284</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08266039323777095</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.06588235294117648</v>
+        <v>0.06434406081052463</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02742554573788736</v>
       </c>
       <c r="AX18" t="n">
-        <v>8.705882352941176</v>
+        <v>8.481624878729308</v>
       </c>
       <c r="AY18" t="n">
-        <v>7.823529411764706</v>
+        <v>7.610876530354318</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1401521647604405</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.02411764705882353</v>
+        <v>0.02344082853684425</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.01970588235294118</v>
+        <v>0.018989601416947</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02718891948817161</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02718891948817161</v>
       </c>
       <c r="BE18" t="n">
-        <v>3.558823529411764</v>
+        <v>3.421704743075812</v>
       </c>
       <c r="BF18" t="n">
-        <v>1</v>
+        <v>0.9800205866487237</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.06205882352941176</v>
+        <v>0.05981831680106391</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02913594443192678</v>
       </c>
       <c r="BI18" t="n">
-        <v>1.794117647058824</v>
+        <v>1.709086544865587</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1.117647058823529</v>
+        <v>1.062320641208095</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1386481499918448</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.03205882352941176</v>
+        <v>0.03052773514732923</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.01852941176470588</v>
+        <v>0.01756557708624599</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4992199981657029</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2766524468933517</v>
       </c>
       <c r="BP18" t="n">
-        <v>10.32352941176471</v>
+        <v>9.996678988417061</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.764705882352941</v>
+        <v>1.683686615438612</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.1373529411764706</v>
+        <v>0.1320504308046477</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>4.764705882352941</v>
+        <v>4.65193498088157</v>
       </c>
       <c r="BU18" t="n">
-        <v>3.323529411764706</v>
+        <v>3.24144740977989</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3879950683874233</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.05941176470588235</v>
+        <v>0.05731041141076838</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.03823529411764706</v>
+        <v>0.03709806362943799</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7253747662682382</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.417588169551575</v>
       </c>
       <c r="CA18" t="n">
-        <v>12.29411764705882</v>
+        <v>12.01750938579511</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02804592801171198</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.006764705882352942</v>
+        <v>0.006633444397123095</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>4.617647058823529</v>
+        <v>4.440979882479588</v>
       </c>
       <c r="CF18" t="n">
-        <v>4.470588235294118</v>
+        <v>4.302603748025719</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05627611798211052</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.002941176470588235</v>
+        <v>0.002767518014936457</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.002647058823529412</v>
+        <v>0.002485969925897186</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -6653,70 +6653,70 @@
         <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>5.941176470588236</v>
+        <v>5.83676219220446</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2843751020638929</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.04941176470588235</v>
+        <v>0.04783942692517974</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05563780486252901</v>
       </c>
       <c r="CP18" t="n">
-        <v>1.882352941176471</v>
+        <v>1.84337836966553</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.470588235294118</v>
+        <v>1.422204553664814</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1409873391074716</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.015</v>
+        <v>0.01428330936313674</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.01264705882352941</v>
+        <v>0.01206788810206547</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08938839172129867</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08938839172129867</v>
       </c>
       <c r="CW18" t="n">
-        <v>19.23529411764706</v>
+        <v>18.816162706362</v>
       </c>
       <c r="CX18" t="n">
-        <v>18.76470588235294</v>
+        <v>18.32297028226515</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.525882352941176</v>
+        <v>1.484160026859069</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08190020773288105</v>
       </c>
       <c r="DA18" t="n">
-        <v>5.029411764705882</v>
+        <v>4.848659597035015</v>
       </c>
       <c r="DB18" t="n">
-        <v>1.647058823529412</v>
+        <v>1.63319530308573</v>
       </c>
       <c r="DC18" t="n">
-        <v>1</v>
+        <v>0.9873024168661972</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.4320588235294118</v>
+        <v>0.4176661829087615</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.1535294117647059</v>
+        <v>0.15114251977188</v>
       </c>
       <c r="DF18" t="n">
-        <v>4.882352941176471</v>
+        <v>4.686022228983591</v>
       </c>
       <c r="DG18" t="n">
-        <v>1.588235294117647</v>
+        <v>1.553239898974434</v>
       </c>
     </row>
     <row r="19">
@@ -6726,130 +6726,130 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.89189189189189</v>
+        <v>32.96903406122912</v>
       </c>
       <c r="C19" t="n">
-        <v>16.51351351351351</v>
+        <v>15.61718503389841</v>
       </c>
       <c r="D19" t="n">
-        <v>1.014594594594595</v>
+        <v>0.9586450116155318</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2082025673664929</v>
       </c>
       <c r="F19" t="n">
-        <v>13.62162162162162</v>
+        <v>12.81258539875828</v>
       </c>
       <c r="G19" t="n">
-        <v>6.189189189189189</v>
+        <v>5.830633048192819</v>
       </c>
       <c r="H19" t="n">
-        <v>1.189189189189189</v>
+        <v>1.122487738486458</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3127027027027027</v>
+        <v>0.294178319210752</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1424324324324324</v>
+        <v>0.1344948479904204</v>
       </c>
       <c r="K19" t="n">
-        <v>5.594594594594595</v>
+        <v>5.257668395463851</v>
       </c>
       <c r="L19" t="n">
-        <v>2.45945945945946</v>
+        <v>2.322116055486086</v>
       </c>
       <c r="M19" t="n">
-        <v>58.16216216216216</v>
+        <v>55.16947732636573</v>
       </c>
       <c r="N19" t="n">
-        <v>11.72972972972973</v>
+        <v>11.18101809165564</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8040540540540541</v>
+        <v>0.7647232136477043</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1533285024749363</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.21621621621622</v>
+        <v>18.19942607007903</v>
       </c>
       <c r="R19" t="n">
-        <v>14.16216216216216</v>
+        <v>13.41960645910256</v>
       </c>
       <c r="S19" t="n">
-        <v>1.810810810810811</v>
+        <v>1.732728245162805</v>
       </c>
       <c r="T19" t="n">
-        <v>0.222972972972973</v>
+        <v>0.2135890209254259</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1462162162162162</v>
+        <v>0.1409713832535342</v>
       </c>
       <c r="V19" t="n">
-        <v>2.783783783783784</v>
+        <v>2.660029089610815</v>
       </c>
       <c r="W19" t="n">
-        <v>1.918918918918919</v>
+        <v>1.842746173870427</v>
       </c>
       <c r="X19" t="n">
-        <v>32.81081081081081</v>
+        <v>31.11624061695069</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.351351351351352</v>
+        <v>5.101665979419439</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.3916216216216216</v>
+        <v>0.3720158297917965</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07534676233262251</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.567567567567568</v>
+        <v>9.034308765566966</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.891891891891892</v>
+        <v>7.461491998103546</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.054054054054054</v>
+        <v>0.9847498043129848</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.08459459459459459</v>
+        <v>0.07924578018124338</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.06054054054054055</v>
+        <v>0.05677381392437493</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.135135135135135</v>
+        <v>1.060121485505776</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.6563840333698761</v>
       </c>
       <c r="AI19" t="n">
-        <v>21.2972972972973</v>
+        <v>20.03947341058666</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07471560916512658</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.06918918918918919</v>
+        <v>0.06507860918312172</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.621621621621621</v>
+        <v>9.058695845963724</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.081081081081081</v>
+        <v>7.6061024090623</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2534391936343504</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.0231701846833156</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0172972972972973</v>
+        <v>0.01628280423818539</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -6858,130 +6858,130 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>23.64864864864865</v>
+        <v>22.62027748693844</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1504281082527852</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.06891891891891891</v>
+        <v>0.06593218363302954</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02599391338077126</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.972972972972973</v>
+        <v>7.567795533044879</v>
       </c>
       <c r="AY19" t="n">
-        <v>7.189189189189189</v>
+        <v>6.827341851238719</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1266552970419502</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.01864864864864865</v>
+        <v>0.01757220119919325</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.01567567567567568</v>
+        <v>0.01471262186898175</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0499146673200452</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02447533715456801</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.405405405405405</v>
+        <v>4.144418317148569</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.324324324324324</v>
+        <v>1.243225825852534</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.09243243243243243</v>
+        <v>0.08699304232973069</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05198782676154252</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.459459459459459</v>
+        <v>1.369349187876839</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8115254999575947</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2042066266375595</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.03594594594594595</v>
+        <v>0.03380358484172627</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.02316395792601604</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4534361810907189</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.328411134458513</v>
       </c>
       <c r="BP19" t="n">
-        <v>10.62162162162162</v>
+        <v>10.02283386873034</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.702702702702703</v>
+        <v>1.609682998988075</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.145945945945946</v>
+        <v>0.1377418088867645</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.09995126188814984</v>
       </c>
       <c r="BT19" t="n">
-        <v>4.162162162162162</v>
+        <v>3.953904008471971</v>
       </c>
       <c r="BU19" t="n">
-        <v>3.324324324324324</v>
+        <v>3.165054726989465</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4815745076024484</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.06</v>
+        <v>0.05700980333566402</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.04945945945945946</v>
+        <v>0.04705983548636109</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.5891128557066123</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.5381463858578853</v>
       </c>
       <c r="CA19" t="n">
-        <v>12.13513513513514</v>
+        <v>11.62476021810074</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02733838080845667</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.006486486486486486</v>
+        <v>0.006147485027656994</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>6.054054054054054</v>
+        <v>5.839951217756985</v>
       </c>
       <c r="CF19" t="n">
-        <v>5.864864864864865</v>
+        <v>5.660923187685812</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07513229149598522</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.002432432432432432</v>
+        <v>0.002295691723551019</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.002432432432432432</v>
+        <v>0.002295691723551019</v>
       </c>
       <c r="CJ19" t="n">
         <v>0</v>
@@ -6990,70 +6990,70 @@
         <v>0</v>
       </c>
       <c r="CL19" t="n">
-        <v>12.51351351351351</v>
+        <v>11.88432166259355</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2553093218191865</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.08567567567567567</v>
+        <v>0.08126832324371826</v>
       </c>
       <c r="CO19" t="n">
         <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>3.702702702702703</v>
+        <v>3.518437987306073</v>
       </c>
       <c r="CQ19" t="n">
-        <v>2.945945945945946</v>
+        <v>2.804069227068205</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1515761805511787</v>
       </c>
       <c r="CS19" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02614815038218812</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.01891891891891892</v>
+        <v>0.01836571221697191</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1284555732929863</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04937330014571548</v>
       </c>
       <c r="CW19" t="n">
-        <v>21.10810810810811</v>
+        <v>20.00084864660203</v>
       </c>
       <c r="CX19" t="n">
-        <v>20.35135135135135</v>
+        <v>19.29072343946919</v>
       </c>
       <c r="CY19" t="n">
-        <v>1.625135135135135</v>
+        <v>1.537530072787843</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1029647826791719</v>
       </c>
       <c r="DA19" t="n">
-        <v>5.432432432432432</v>
+        <v>5.114602991825296</v>
       </c>
       <c r="DB19" t="n">
-        <v>1.72972972972973</v>
+        <v>1.625936486382456</v>
       </c>
       <c r="DC19" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.6838650698562955</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.4364864864864865</v>
+        <v>0.4103167796701077</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.1108108108108108</v>
+        <v>0.1044210988503322</v>
       </c>
       <c r="DF19" t="n">
-        <v>5.108108108108108</v>
+        <v>4.80893179527603</v>
       </c>
       <c r="DG19" t="n">
-        <v>1.594594594594595</v>
+        <v>1.498641708044638</v>
       </c>
     </row>
     <row r="20">
@@ -7063,130 +7063,130 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.86486486486486</v>
+        <v>23.76557558791982</v>
       </c>
       <c r="C20" t="n">
-        <v>14.21621621621622</v>
+        <v>13.60196249761366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.778918918918919</v>
+        <v>0.7430593320794004</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1018028816064524</v>
       </c>
       <c r="F20" t="n">
-        <v>10.35135135135135</v>
+        <v>9.905376359593212</v>
       </c>
       <c r="G20" t="n">
-        <v>5.405405405405405</v>
+        <v>5.160613443797486</v>
       </c>
       <c r="H20" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9246540397579676</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.2577053949446659</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1297297297297297</v>
+        <v>0.1229216480157684</v>
       </c>
       <c r="K20" t="n">
-        <v>4.756756756756757</v>
+        <v>4.544919460288775</v>
       </c>
       <c r="L20" t="n">
-        <v>2.27027027027027</v>
+        <v>2.153747402806165</v>
       </c>
       <c r="M20" t="n">
-        <v>53.37837837837838</v>
+        <v>51.41269730044432</v>
       </c>
       <c r="N20" t="n">
-        <v>10.45945945945946</v>
+        <v>10.0177970270853</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7037837837837838</v>
+        <v>0.6750662123886378</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3208138736137173</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.16216216216216</v>
+        <v>16.50321450855069</v>
       </c>
       <c r="R20" t="n">
-        <v>12.67567567567568</v>
+        <v>12.19812833178173</v>
       </c>
       <c r="S20" t="n">
-        <v>1.540540540540541</v>
+        <v>1.476392800668275</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1916216216216216</v>
+        <v>0.1837184985316483</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1272972972972973</v>
+        <v>0.1216684529367947</v>
       </c>
       <c r="V20" t="n">
-        <v>2.594594594594595</v>
+        <v>2.478470413274367</v>
       </c>
       <c r="W20" t="n">
-        <v>1.621621621621622</v>
+        <v>1.536235283802561</v>
       </c>
       <c r="X20" t="n">
-        <v>32.62162162162162</v>
+        <v>31.67224297133223</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.189189189189189</v>
+        <v>5.960312456181353</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.4018918918918919</v>
+        <v>0.3894293401885333</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1032349306620088</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.18918918918919</v>
+        <v>9.927660502147281</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.513513513513514</v>
+        <v>8.293973835393819</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0.9767872990285609</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1072972972972973</v>
+        <v>0.1037114423937118</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.08054054054054054</v>
+        <v>0.07760321536891016</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.756756756756757</v>
+        <v>1.696227081257377</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.243243243243243</v>
+        <v>1.188867757921389</v>
       </c>
       <c r="AI20" t="n">
-        <v>13.08108108108108</v>
+        <v>12.554015409163</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.03</v>
+        <v>0.02874985539192924</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02570738144612589</v>
       </c>
       <c r="AM20" t="n">
-        <v>5.513513513513513</v>
+        <v>5.327057334314744</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.972972972972973</v>
+        <v>4.77192156295254</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1770222316769031</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.01027027027027027</v>
+        <v>0.009971299808306048</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.00891891891891892</v>
+        <v>0.008410402022767712</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -7195,130 +7195,130 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.32432432432432</v>
+        <v>22.35284420702739</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1261174551199136</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0627027027027027</v>
+        <v>0.05949053305421914</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07513509446091121</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.324324324324325</v>
+        <v>7.052102769310371</v>
       </c>
       <c r="AY20" t="n">
-        <v>6.675675675675675</v>
+        <v>6.40926740209977</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2016838821517133</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.0172972972972973</v>
+        <v>0.01634249109259667</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.01432432432432433</v>
+        <v>0.01351326901217627</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05039250788018537</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05039250788018537</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.837837837837838</v>
+        <v>3.717951376099896</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.432432432432432</v>
+        <v>1.352661075394126</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.07648648648648648</v>
+        <v>0.07309385327014511</v>
       </c>
       <c r="BH20" t="n">
         <v>0</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.324324324324324</v>
+        <v>1.293929243517604</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.7502382888757808</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.08817313093708699</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.02285814967654446</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.0127027027027027</v>
+        <v>0.01214676767073409</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.3641504069544398</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1260784355545715</v>
       </c>
       <c r="BP20" t="n">
-        <v>8.621621621621621</v>
+        <v>8.227605533403519</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.567567567567568</v>
+        <v>1.489473572687148</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.1178378378378378</v>
+        <v>0.1119311879393663</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05026410061684371</v>
       </c>
       <c r="BT20" t="n">
-        <v>3.621621621621621</v>
+        <v>3.457637616653912</v>
       </c>
       <c r="BU20" t="n">
-        <v>2.756756756756757</v>
+        <v>2.642561461843343</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.3115719692096383</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.04621621621621622</v>
+        <v>0.0433791292768328</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.03594594594594595</v>
+        <v>0.03376547994086149</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4522210674704563</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.3518215526463342</v>
       </c>
       <c r="CA20" t="n">
-        <v>10.78378378378378</v>
+        <v>10.60952463363949</v>
       </c>
       <c r="CB20" t="n">
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.003243243243243243</v>
+        <v>0.003158785720538958</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>4.783783783783784</v>
+        <v>4.786216265161599</v>
       </c>
       <c r="CF20" t="n">
-        <v>4.567567567567568</v>
+        <v>4.58233781835271</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.100804769802947</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.001081081081081081</v>
+        <v>0.001137240697771507</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.001081081081081081</v>
+        <v>0.001137240697771507</v>
       </c>
       <c r="CJ20" t="n">
         <v>0</v>
@@ -7327,70 +7327,70 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>8.783783783783784</v>
+        <v>8.451030575441084</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.4428556116593564</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.0672972972972973</v>
+        <v>0.06542235763693528</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.05500789983649763</v>
       </c>
       <c r="CP20" t="n">
-        <v>2</v>
+        <v>1.909632662161061</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.540540540540541</v>
+        <v>1.472722182468934</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1380762925955339</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01286368578966358</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.01006289959150274</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1006756515283959</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07530663093608005</v>
       </c>
       <c r="CW20" t="n">
-        <v>17.83783783783784</v>
+        <v>16.97375035350453</v>
       </c>
       <c r="CX20" t="n">
-        <v>17.35135135135135</v>
+        <v>16.51314753156897</v>
       </c>
       <c r="CY20" t="n">
-        <v>1.363513513513514</v>
+        <v>1.295289508290133</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1789484507799332</v>
       </c>
       <c r="DA20" t="n">
-        <v>4.594594594594595</v>
+        <v>4.380336023040212</v>
       </c>
       <c r="DB20" t="n">
-        <v>1.972972972972973</v>
+        <v>1.899762256555061</v>
       </c>
       <c r="DC20" t="n">
-        <v>1.027027027027027</v>
+        <v>0.9941119037809496</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.3343243243243244</v>
+        <v>0.3172821236928509</v>
       </c>
       <c r="DE20" t="n">
-        <v>0.1294594594594595</v>
+        <v>0.1244358922272063</v>
       </c>
       <c r="DF20" t="n">
-        <v>4.45945945945946</v>
+        <v>4.253657639930294</v>
       </c>
       <c r="DG20" t="n">
-        <v>1.891891891891892</v>
+        <v>1.823589637924203</v>
       </c>
     </row>
     <row r="21">
@@ -7400,262 +7400,262 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.43333333333333</v>
+        <v>21.67726166232588</v>
       </c>
       <c r="C21" t="n">
-        <v>12.16666666666667</v>
+        <v>12.47000121464112</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6786666666666666</v>
+        <v>0.690308117287595</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
+        <v>0.09420070221159069</v>
       </c>
       <c r="F21" t="n">
-        <v>8.633333333333333</v>
+        <v>8.732510752358849</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.611844360864169</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7</v>
+        <v>0.6975801518309654</v>
       </c>
       <c r="I21" t="n">
-        <v>0.223</v>
+        <v>0.2301352745379872</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08566666666666665</v>
+        <v>0.08633918289738768</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.301705707823422</v>
       </c>
       <c r="L21" t="n">
-        <v>1.733333333333333</v>
+        <v>1.7572885513693</v>
       </c>
       <c r="M21" t="n">
-        <v>48.16666666666666</v>
+        <v>49.5508182509793</v>
       </c>
       <c r="N21" t="n">
-        <v>8.699999999999999</v>
+        <v>9.201182952972667</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6283333333333334</v>
+        <v>0.6558173546723289</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.170856679480297</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.9</v>
+        <v>15.45271945925892</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.78944226335569</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8030654090148929</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1646666666666667</v>
+        <v>0.1746853372483479</v>
       </c>
       <c r="U21" t="n">
-        <v>0.117</v>
+        <v>0.1242538172652287</v>
       </c>
       <c r="V21" t="n">
-        <v>2.3</v>
+        <v>2.46298278486486</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.628877095075293</v>
       </c>
       <c r="X21" t="n">
-        <v>30.96666666666667</v>
+        <v>32.52636445637905</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.033333333333333</v>
+        <v>5.305804900817384</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.353</v>
+        <v>0.3746049387477098</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.07646744004658729</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>7.959989937000914</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.433333333333334</v>
+        <v>6.516059601806655</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.8</v>
+        <v>0.8206060497640494</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.08066666666666666</v>
+        <v>0.08157961275867479</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.06200000000000001</v>
+        <v>0.0623263931015797</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.066666666666667</v>
+        <v>1.050673719271828</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7338318425327145</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.13333333333333</v>
+        <v>10.28966131481531</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03087372645878357</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.027</v>
+        <v>0.0268783809694901</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.7</v>
+        <v>4.807702567186531</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.066666666666666</v>
+        <v>4.151465423659469</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.1</v>
+        <v>0.1060237134566413</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.01133333333333333</v>
+        <v>0.01190471466608919</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.009508440983784826</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03087372645878357</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03087372645878357</v>
       </c>
       <c r="AT21" t="n">
-        <v>19.76666666666667</v>
+        <v>21.11965828739208</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.1</v>
+        <v>0.09339116708280058</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.04766666666666666</v>
+        <v>0.04807908347446032</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03121098626716604</v>
       </c>
       <c r="AX21" t="n">
-        <v>7</v>
+        <v>7.335098851285861</v>
       </c>
       <c r="AY21" t="n">
-        <v>6.566666666666666</v>
+        <v>6.858009690561684</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2</v>
+        <v>0.1872079680832585</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.01566666666666667</v>
+        <v>0.01530082797893192</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01307778807312</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.0312767155278467</v>
       </c>
       <c r="BD21" t="n">
         <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>2.533333333333333</v>
+        <v>2.624103948515995</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9990678041487665</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.04733333333333333</v>
+        <v>0.05085768022560536</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7863933134922482</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3806000567702127</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03121098626716604</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.01233333333333333</v>
+        <v>0.01286878162001959</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.005</v>
+        <v>0.00601633720443569</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.2494465927701427</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09501776178088148</v>
       </c>
       <c r="BP21" t="n">
-        <v>5.9</v>
+        <v>5.882868673470027</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.1</v>
+        <v>1.166496150890664</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.09273682071711066</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.05039221944131825</v>
       </c>
       <c r="BT21" t="n">
-        <v>2.266666666666667</v>
+        <v>2.225576940243287</v>
       </c>
       <c r="BU21" t="n">
-        <v>1.866666666666667</v>
+        <v>1.814726275970723</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3348239033020062</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.03266666666666666</v>
+        <v>0.03387649693282355</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.02633333333333333</v>
+        <v>0.02685120729774234</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.5</v>
+        <v>0.5283495332845836</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.4</v>
+        <v>0.405558208077238</v>
       </c>
       <c r="CA21" t="n">
-        <v>10.26666666666667</v>
+        <v>11.29822738964304</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03213057867172188</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.008171635906467373</v>
       </c>
       <c r="CD21" t="n">
         <v>0</v>
       </c>
       <c r="CE21" t="n">
-        <v>3.8</v>
+        <v>4.30606972013611</v>
       </c>
       <c r="CF21" t="n">
-        <v>3.766666666666667</v>
+        <v>4.273939141464388</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06357852856310167</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001573067050339362</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001251761263622143</v>
       </c>
       <c r="CJ21" t="n">
         <v>0</v>
@@ -7664,70 +7664,70 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>7.5</v>
+        <v>7.80596701862598</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.3</v>
+        <v>0.3295069295413787</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.04766666666666666</v>
+        <v>0.04971368419094368</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03087372645878357</v>
       </c>
       <c r="CP21" t="n">
-        <v>1.533333333333333</v>
+        <v>1.549114712029521</v>
       </c>
       <c r="CQ21" t="n">
-        <v>1.333333333333333</v>
+        <v>1.36072865916014</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.1</v>
+        <v>0.09298123273355123</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.01066666666666667</v>
+        <v>0.01068519687414793</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.009333333333333334</v>
+        <v>0.009433208450916093</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.1</v>
+        <v>0.09355813477751786</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.1</v>
+        <v>0.09355813477751786</v>
       </c>
       <c r="CW21" t="n">
-        <v>15.93333333333333</v>
+        <v>16.65648744768237</v>
       </c>
       <c r="CX21" t="n">
-        <v>15.36666666666667</v>
+        <v>16.03918454431519</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.270333333333333</v>
+        <v>1.332375337536059</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.06305832895428271</v>
       </c>
       <c r="DA21" t="n">
-        <v>4.233333333333333</v>
+        <v>4.431493226013831</v>
       </c>
       <c r="DB21" t="n">
-        <v>1.266666666666667</v>
+        <v>1.415829281203725</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6833118280036727</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.3363333333333333</v>
+        <v>0.3530398545647495</v>
       </c>
       <c r="DE21" t="n">
-        <v>0.07866666666666666</v>
+        <v>0.09320720838414541</v>
       </c>
       <c r="DF21" t="n">
-        <v>4.033333333333333</v>
+        <v>4.210643845288192</v>
       </c>
       <c r="DG21" t="n">
-        <v>1.166666666666667</v>
+        <v>1.290330006381892</v>
       </c>
     </row>
   </sheetData>
